--- a/Day5.xlsx
+++ b/Day5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C867BD-146D-EF43-BA65-C07C40B9D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31020C-C945-C540-9C9F-39FC21AEBB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="600" windowWidth="28040" windowHeight="16660" activeTab="2" xr2:uid="{5583B0FB-F0AD-0840-B249-2364FEB32A37}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="CONDITIONALs" sheetId="2" r:id="rId2"/>
     <sheet name="SUM_PROD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>MEASURE OF CENTRAL TENDENCIES</t>
   </si>
@@ -335,8 +335,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>79567</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -355,7 +355,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -400,8 +400,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>178667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -420,7 +420,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -465,8 +465,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>171141</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -485,7 +485,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -530,8 +530,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>41490</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -550,7 +550,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -595,8 +595,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -615,7 +615,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -660,8 +660,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>146301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Ink 41">
@@ -680,7 +680,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Ink 41">
@@ -725,8 +725,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>186947</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -745,7 +745,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -790,8 +790,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>29610</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -810,7 +810,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -855,8 +855,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>164284</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -875,7 +875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -920,8 +920,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>167474</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -940,7 +940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -985,8 +985,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>10530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Ink 64">
@@ -1005,7 +1005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Ink 64">
@@ -1050,8 +1050,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>584</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -1070,7 +1070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -1115,8 +1115,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Ink 73">
@@ -1135,7 +1135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Ink 73">
@@ -1180,8 +1180,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1564</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -1200,7 +1200,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -1245,8 +1245,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>101970</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Ink 84">
@@ -1265,7 +1265,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Ink 84">
@@ -1310,8 +1310,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>96277</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="97" name="Ink 96">
@@ -1330,7 +1330,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="97" name="Ink 96">
@@ -1375,8 +1375,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114067</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -1395,7 +1395,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -1440,8 +1440,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>200367</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Ink 118">
@@ -1460,7 +1460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Ink 118">
@@ -1505,8 +1505,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>134161</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -1525,7 +1525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -1570,8 +1570,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>181304</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Ink 135">
@@ -1590,7 +1590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Ink 135">
@@ -1635,8 +1635,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>108567</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -1655,7 +1655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -1700,8 +1700,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>57597</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Ink 143">
@@ -1720,7 +1720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Ink 143">
@@ -1765,8 +1765,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>132117</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="145" name="Ink 144">
@@ -1785,7 +1785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="145" name="Ink 144">
@@ -1830,8 +1830,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>116277</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Ink 157">
@@ -1850,7 +1850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Ink 157">
@@ -1895,8 +1895,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>32891</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Ink 169">
@@ -1915,7 +1915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Ink 169">
@@ -1960,8 +1960,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>53411</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="176" name="Ink 175">
@@ -1980,7 +1980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="176" name="Ink 175">
@@ -2025,8 +2025,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>78201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="177" name="Ink 176">
@@ -2045,7 +2045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="177" name="Ink 176">
@@ -2090,8 +2090,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>143018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Ink 177">
@@ -2110,7 +2110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Ink 177">
@@ -2155,8 +2155,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>184041</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="179" name="Ink 178">
@@ -2175,7 +2175,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="179" name="Ink 178">
@@ -2220,8 +2220,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>181948</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Ink 183">
@@ -2240,7 +2240,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Ink 183">
@@ -2285,8 +2285,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>80478</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="192" name="Ink 191">
@@ -2305,7 +2305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="192" name="Ink 191">
@@ -2350,8 +2350,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>39798</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="200" name="Ink 199">
@@ -2370,7 +2370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="200" name="Ink 199">
@@ -2415,8 +2415,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>95254</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="Ink 203">
@@ -2435,7 +2435,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="Ink 203">
@@ -2480,8 +2480,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>156748</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="Ink 204">
@@ -2500,7 +2500,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="Ink 204">
@@ -2545,8 +2545,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>134771</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Ink 205">
@@ -2565,7 +2565,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Ink 205">
@@ -2610,8 +2610,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>69971</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Ink 238">
@@ -2630,7 +2630,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Ink 238">
@@ -2675,8 +2675,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>154571</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="240" name="Ink 239">
@@ -2695,7 +2695,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="240" name="Ink 239">
@@ -2740,8 +2740,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>108079</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="257" name="Ink 256">
@@ -2760,7 +2760,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="257" name="Ink 256">
@@ -2805,8 +2805,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>42562</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="276" name="Ink 275">
@@ -2825,7 +2825,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="276" name="Ink 275">
@@ -2870,8 +2870,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>72442</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="283" name="Ink 282">
@@ -2890,7 +2890,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="283" name="Ink 282">
@@ -2935,8 +2935,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>28344</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="284" name="Ink 283">
@@ -2955,7 +2955,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="284" name="Ink 283">
@@ -3000,8 +3000,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>129013</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="289" name="Ink 288">
@@ -3020,7 +3020,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="289" name="Ink 288">
@@ -3065,8 +3065,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>196875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="292" name="Ink 291">
@@ -3085,7 +3085,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="292" name="Ink 291">
@@ -3130,8 +3130,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>192555</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="297" name="Ink 296">
@@ -3150,7 +3150,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="297" name="Ink 296">
@@ -3195,8 +3195,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>187155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="298" name="Ink 297">
@@ -3215,7 +3215,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="298" name="Ink 297">
@@ -3260,8 +3260,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>148632</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="306" name="Ink 305">
@@ -3280,7 +3280,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="306" name="Ink 305">
@@ -3325,8 +3325,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>113337</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="351" name="Ink 350">
@@ -3345,7 +3345,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="351" name="Ink 350">
@@ -3390,8 +3390,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>112483</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="354" name="Ink 353">
@@ -3410,7 +3410,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="354" name="Ink 353">
@@ -3455,8 +3455,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>140563</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="370" name="Ink 369">
@@ -3475,7 +3475,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="370" name="Ink 369">
@@ -3520,8 +3520,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>87539</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="385" name="Ink 384">
@@ -3540,7 +3540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="385" name="Ink 384">
@@ -3585,8 +3585,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>148530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="386" name="Ink 385">
@@ -3605,7 +3605,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="386" name="Ink 385">
@@ -3650,8 +3650,8 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>153769</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="387" name="Ink 386">
@@ -3670,7 +3670,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="387" name="Ink 386">
@@ -3715,8 +3715,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>34666</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="388" name="Ink 387">
@@ -3735,7 +3735,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="388" name="Ink 387">
@@ -3780,8 +3780,8 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>25874</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="389" name="Ink 388">
@@ -3800,7 +3800,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="389" name="Ink 388">
@@ -3987,8 +3987,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>72883</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -4007,7 +4007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -4052,8 +4052,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63883</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -4072,7 +4072,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -4117,8 +4117,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>107083</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -4137,7 +4137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -4159,6 +4159,3646 @@
             <a:xfrm>
               <a:off x="8686866" y="980280"/>
               <a:ext cx="990717" cy="752400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408531</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526611</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103417</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CF5AF6-A2F3-895A-BC5B-9443C917B040}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7467840" y="7809840"/>
+            <a:ext cx="118080" cy="399960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CF5AF6-A2F3-895A-BC5B-9443C917B040}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7460280" y="7802280"/>
+              <a:ext cx="133200" cy="415080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636596</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>181795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>183138</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>199136</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2851EB0-6177-1785-5BEC-3079BE8D25A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3575160" y="7274880"/>
+            <a:ext cx="1194840" cy="625320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2851EB0-6177-1785-5BEC-3079BE8D25A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3567598" y="7267320"/>
+              <a:ext cx="1209965" cy="640080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>130016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236811</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35737</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="63" name="Ink 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407C511C-A948-5395-9517-4BD8C244A6F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6275880" y="7831080"/>
+            <a:ext cx="1020240" cy="311040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="63" name="Ink 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407C511C-A948-5395-9517-4BD8C244A6F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6268323" y="7823520"/>
+              <a:ext cx="1034995" cy="326160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330520</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34491</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78156</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB863EF-8AA0-5FB4-5742-E13A998FED44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6565680" y="7562880"/>
+            <a:ext cx="528120" cy="13680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="Ink 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB863EF-8AA0-5FB4-5742-E13A998FED44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6558120" y="7555320"/>
+              <a:ext cx="543240" cy="28800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>730229</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167796</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="65" name="Ink 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47717C0B-A33D-93E6-91E7-6A838738653A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6141240" y="7431840"/>
+            <a:ext cx="119520" cy="234360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="65" name="Ink 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47717C0B-A33D-93E6-91E7-6A838738653A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6133680" y="7424280"/>
+              <a:ext cx="134640" cy="249480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>491658</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482549</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165296</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93D54F-C444-DD39-6ACB-6570F0A93A2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5078520" y="7425360"/>
+            <a:ext cx="815040" cy="441000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93D54F-C444-DD39-6ACB-6570F0A93A2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5070957" y="7417800"/>
+              <a:ext cx="830167" cy="456120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471858</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>694949</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30214</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B1D7BB-32D5-CAD8-1A78-3B08D388080A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5058720" y="4987080"/>
+            <a:ext cx="1047240" cy="1933560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B1D7BB-32D5-CAD8-1A78-3B08D388080A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5051157" y="4979519"/>
+              <a:ext cx="1062365" cy="1948683"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>959837</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325447</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42434</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ACCF6E-5D88-4635-DCB4-A84A274F4861}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2918880" y="4903920"/>
+            <a:ext cx="1169280" cy="1826280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ACCF6E-5D88-4635-DCB4-A84A274F4861}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2911318" y="4896360"/>
+              <a:ext cx="1184405" cy="1841400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>663956</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292971</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101392</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F2769B-383A-D7BD-067A-4FB8D27C9563}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3602520" y="5481360"/>
+            <a:ext cx="3749760" cy="497160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F2769B-383A-D7BD-067A-4FB8D27C9563}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3594960" y="5473800"/>
+              <a:ext cx="3764880" cy="512280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31394</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19522</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="90" name="Ink 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50494DA-378E-1579-DACB-4C40159C3579}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8011800" y="535680"/>
+            <a:ext cx="727200" cy="294480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="Ink 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50494DA-378E-1579-DACB-4C40159C3579}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8004240" y="528120"/>
+              <a:ext cx="742320" cy="309600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152538</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>131198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>817098</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>32423</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="133" name="Ink 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF06514-245D-4249-D57C-E18F0009E66F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4739400" y="8845560"/>
+            <a:ext cx="664560" cy="2130480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="133" name="Ink 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF06514-245D-4249-D57C-E18F0009E66F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4731840" y="8838001"/>
+              <a:ext cx="679680" cy="2145597"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250207</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>674287</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>138603</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="134" name="Ink 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DBFC4E-1DAC-A9C0-9CD1-7AD521F1743B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4012920" y="9079920"/>
+            <a:ext cx="424080" cy="1799640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="134" name="Ink 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DBFC4E-1DAC-A9C0-9CD1-7AD521F1743B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4005366" y="9072358"/>
+              <a:ext cx="439187" cy="1814763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67687</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>109443</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="135" name="Ink 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BB5EFC-C25D-55FE-BD16-12AE17B54ED0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3106440" y="8794440"/>
+            <a:ext cx="723960" cy="2055960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="135" name="Ink 134">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BB5EFC-C25D-55FE-BD16-12AE17B54ED0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3098876" y="8786880"/>
+              <a:ext cx="739088" cy="2070720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321730</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>837077</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123143</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="136" name="Ink 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D4DC1F-73E8-2176-B326-DDB21BED7184}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1490400" y="8724240"/>
+            <a:ext cx="1305720" cy="2342520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="136" name="Ink 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D4DC1F-73E8-2176-B326-DDB21BED7184}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1482840" y="8716680"/>
+              <a:ext cx="1320840" cy="2357640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233211</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188546</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383B133C-266D-D323-28A2-6D2A44F591F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7292520" y="1051560"/>
+            <a:ext cx="2669760" cy="1771560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383B133C-266D-D323-28A2-6D2A44F591F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7284960" y="1044360"/>
+              <a:ext cx="2684880" cy="1786320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473331</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91874</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="139" name="Ink 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D871A07-A0A0-D61D-0E59-7740BFAAC20B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7532640" y="5254200"/>
+            <a:ext cx="1266840" cy="1850760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="139" name="Ink 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D871A07-A0A0-D61D-0E59-7740BFAAC20B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7525078" y="5246640"/>
+              <a:ext cx="1281964" cy="1865880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365549</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>87965</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED50A38-D986-2DCE-48A7-48D39DD74AB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5776560" y="11589840"/>
+            <a:ext cx="1063800" cy="455040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED50A38-D986-2DCE-48A7-48D39DD74AB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5768997" y="11582640"/>
+              <a:ext cx="1078925" cy="470160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592818</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>120684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181229</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>164645</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="161" name="Ink 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7027782F-7079-3B74-765D-60E11A44CC39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5179680" y="11672280"/>
+            <a:ext cx="412560" cy="449280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="161" name="Ink 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7027782F-7079-3B74-765D-60E11A44CC39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5172120" y="11664720"/>
+              <a:ext cx="427680" cy="464400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>715037</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406338</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>16685</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="162" name="Ink 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCF63FD-EB2C-6482-DEFC-F88957AD4A72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2674080" y="11590200"/>
+            <a:ext cx="2319120" cy="383400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="162" name="Ink 161">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCF63FD-EB2C-6482-DEFC-F88957AD4A72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2666521" y="11582640"/>
+              <a:ext cx="2334238" cy="398520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164237</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425237</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>46905</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="163" name="Ink 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2E101D-A2EB-2E78-4843-091C417FB761}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2123280" y="11630520"/>
+            <a:ext cx="261000" cy="170640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="163" name="Ink 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2E101D-A2EB-2E78-4843-091C417FB761}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2115710" y="11622960"/>
+              <a:ext cx="276141" cy="185760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30749</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71429</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>54186</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="177" name="Ink 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3113788C-3A72-E4AE-301F-743F2CD47ADC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5441760" y="12615840"/>
+            <a:ext cx="40680" cy="3240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="177" name="Ink 176">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3113788C-3A72-E4AE-301F-743F2CD47ADC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5434200" y="12608280"/>
+              <a:ext cx="55800" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163120</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336531</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104967</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="185" name="Ink 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB80A51-1D8F-095A-E69B-942C058ED1D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6398280" y="12618360"/>
+            <a:ext cx="997560" cy="254160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="185" name="Ink 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB80A51-1D8F-095A-E69B-942C058ED1D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6390720" y="12610800"/>
+              <a:ext cx="1012680" cy="269280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243869</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502709</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>148146</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="186" name="Ink 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C299018-C388-72A9-DF76-D1AE54ED19BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5654880" y="12660840"/>
+            <a:ext cx="258840" cy="52200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="186" name="Ink 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C299018-C388-72A9-DF76-D1AE54ED19BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5647330" y="12653280"/>
+              <a:ext cx="273939" cy="67320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396258</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>148486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586698</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173706</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="187" name="Ink 186">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96C2592-049F-25CE-ABF3-89024007EFBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4983120" y="12510720"/>
+            <a:ext cx="190440" cy="227880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="187" name="Ink 186">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96C2592-049F-25CE-ABF3-89024007EFBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4975560" y="12503160"/>
+              <a:ext cx="205560" cy="242640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657116</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>65686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211578</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>130527</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="188" name="Ink 187">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3C97AA-AC62-88A8-F800-70EA35693283}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3595680" y="12427920"/>
+            <a:ext cx="1202760" cy="470160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="188" name="Ink 187">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3C97AA-AC62-88A8-F800-70EA35693283}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3588120" y="12420360"/>
+              <a:ext cx="1217880" cy="485280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>283436</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>170086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>455516</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>181626</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="189" name="Ink 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96E7F7F-68ED-1E3E-9E77-E681A5C14C44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3222000" y="12532320"/>
+            <a:ext cx="172080" cy="214200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="189" name="Ink 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96E7F7F-68ED-1E3E-9E77-E681A5C14C44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3214440" y="12524760"/>
+              <a:ext cx="187200" cy="229320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>769210</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>61006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>949757</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104967</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="190" name="Ink 189">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A04C18-AE57-000A-173C-F1221DF0188A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1937880" y="12423240"/>
+            <a:ext cx="970920" cy="449280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="190" name="Ink 189">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A04C18-AE57-000A-173C-F1221DF0188A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1930320" y="12415680"/>
+              <a:ext cx="986040" cy="464040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184436</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380276</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>174373</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="199" name="Ink 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C564D741-C11C-755E-5508-CE4603BFAD75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3123000" y="13452480"/>
+            <a:ext cx="195840" cy="2326680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="199" name="Ink 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C564D741-C11C-755E-5508-CE4603BFAD75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3115440" y="13444920"/>
+              <a:ext cx="210960" cy="2341800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>294847</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574927</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>140913</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="202" name="Ink 201">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3050974-6F43-AF6D-ED52-3821DF3C8F06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4057560" y="13386600"/>
+            <a:ext cx="280080" cy="2561760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="202" name="Ink 201">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3050974-6F43-AF6D-ED52-3821DF3C8F06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4050000" y="13379040"/>
+              <a:ext cx="295200" cy="2576880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658196</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64087</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95410</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="203" name="Ink 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB17768-0D2E-0295-A797-DDC55AD3FB5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3596760" y="14059800"/>
+            <a:ext cx="230040" cy="424440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="203" name="Ink 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB17768-0D2E-0295-A797-DDC55AD3FB5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3589200" y="14052234"/>
+              <a:ext cx="245160" cy="439573"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570317</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>832757</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>63133</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="204" name="Ink 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9904C3-2086-3616-D95F-A3D7C08D455F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2529360" y="14347440"/>
+            <a:ext cx="262440" cy="1320480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="204" name="Ink 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9904C3-2086-3616-D95F-A3D7C08D455F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2521790" y="14339878"/>
+              <a:ext cx="277581" cy="1335604"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16098</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>42388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292218</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133849</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="205" name="Ink 204">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CA81AB-625F-4BC2-5720-E36445A6F411}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4602960" y="13417920"/>
+            <a:ext cx="276120" cy="294120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="205" name="Ink 204">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CA81AB-625F-4BC2-5720-E36445A6F411}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4595400" y="13410360"/>
+              <a:ext cx="291240" cy="309240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38778</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>284658</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>109409</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="206" name="Ink 205">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DDCBB5-38F9-E5FD-D2CF-ACEBACB829E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4625640" y="13880520"/>
+            <a:ext cx="245880" cy="212400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="206" name="Ink 205">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DDCBB5-38F9-E5FD-D2CF-ACEBACB829E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4618080" y="13872960"/>
+              <a:ext cx="261000" cy="227520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747258</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94469</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76473</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="211" name="Ink 210">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED501534-CC72-B5B6-36E9-CAC3706BB955}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5334120" y="13483080"/>
+            <a:ext cx="171360" cy="2400840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="211" name="Ink 210">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED501534-CC72-B5B6-36E9-CAC3706BB955}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5326560" y="13475520"/>
+              <a:ext cx="186480" cy="2415960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75138</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>186110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>239658</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67833</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="212" name="Ink 211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53740825-8FD1-37E2-A6F3-33B94990A004}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4662000" y="14372280"/>
+            <a:ext cx="164520" cy="1503000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="212" name="Ink 211">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53740825-8FD1-37E2-A6F3-33B94990A004}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4654440" y="14365078"/>
+              <a:ext cx="179640" cy="1518124"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449170</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627370</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182602</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="213" name="Ink 212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA3B998-57F5-6430-F97E-7801E8F88594}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1617840" y="919080"/>
+            <a:ext cx="178200" cy="74160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="213" name="Ink 212">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA3B998-57F5-6430-F97E-7801E8F88594}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1610280" y="911520"/>
+              <a:ext cx="193320" cy="88920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521890</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>669490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110982</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="214" name="Ink 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39249418-CE17-1ABF-3325-75C42A0B7CB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1690560" y="1076760"/>
+            <a:ext cx="147600" cy="47520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="214" name="Ink 213">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39249418-CE17-1ABF-3325-75C42A0B7CB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1683360" y="1069200"/>
+              <a:ext cx="162720" cy="62640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535570</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>765970</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153123</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="215" name="Ink 214">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6FD56B-D8E2-A99E-EF17-FB24578C5433}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1704240" y="1262160"/>
+            <a:ext cx="230400" cy="106920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="215" name="Ink 214">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6FD56B-D8E2-A99E-EF17-FB24578C5433}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1696680" y="1254600"/>
+              <a:ext cx="245520" cy="122040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41477</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="217" name="Ink 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB7F2DC-B94D-8A3E-9A82-B0EAC7A42153}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1852920" y="268200"/>
+            <a:ext cx="147600" cy="119520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="217" name="Ink 216">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB7F2DC-B94D-8A3E-9A82-B0EAC7A42153}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1845360" y="260640"/>
+              <a:ext cx="162720" cy="134640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>614770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>759490</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132181</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="220" name="Ink 219">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5663CDF-05FD-20B5-59DC-644070ECE89B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1783440" y="504720"/>
+            <a:ext cx="144720" cy="235440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="220" name="Ink 219">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5663CDF-05FD-20B5-59DC-644070ECE89B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1776222" y="497160"/>
+              <a:ext cx="159878" cy="250560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18761</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="221" name="Ink 220">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2D2E72-6914-87AE-0216-1C099CCDC9C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="533520" y="267480"/>
+            <a:ext cx="169200" cy="156600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="221" name="Ink 220">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2D2E72-6914-87AE-0216-1C099CCDC9C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="525960" y="259920"/>
+              <a:ext cx="184320" cy="171360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170722</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="224" name="Ink 223">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2ED875-49EC-F75D-CBBC-3F44480288B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="561600" y="863280"/>
+            <a:ext cx="162000" cy="118080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="224" name="Ink 223">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2ED875-49EC-F75D-CBBC-3F44480288B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="554040" y="856080"/>
+              <a:ext cx="177120" cy="133200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99843</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="225" name="Ink 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1389A17C-53DB-5246-7436-857E536013C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="563040" y="1152720"/>
+            <a:ext cx="18720" cy="163080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="225" name="Ink 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1389A17C-53DB-5246-7436-857E536013C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="555840" y="1145160"/>
+              <a:ext cx="33480" cy="178200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>189843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107423</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="226" name="Ink 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40970D1-9805-18CD-2339-441650F1FEC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="603000" y="1405800"/>
+            <a:ext cx="16200" cy="120240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="226" name="Ink 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40970D1-9805-18CD-2339-441650F1FEC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="595800" y="1398240"/>
+              <a:ext cx="30960" cy="135360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>724320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175381</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="227" name="Ink 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC7A41E-4551-5D99-6753-347BA225145F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="556560" y="497880"/>
+            <a:ext cx="167760" cy="285480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="227" name="Ink 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC7A41E-4551-5D99-6753-347BA225145F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="549000" y="490330"/>
+              <a:ext cx="182880" cy="300581"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344669</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>20788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205491</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>145933</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="236" name="Ink 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D4CCD7-5534-8CD7-81B7-E0BAAA9CF0E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5755680" y="13396320"/>
+            <a:ext cx="1509120" cy="2354400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="236" name="Ink 235">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D4CCD7-5534-8CD7-81B7-E0BAAA9CF0E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5748120" y="13388760"/>
+              <a:ext cx="1524240" cy="2369520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>763316</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>119788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>793196</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>175948</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="237" name="Ink 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9572B5-D6C1-B711-E63A-89626C731C4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3701880" y="13495320"/>
+            <a:ext cx="29880" cy="56160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="237" name="Ink 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9572B5-D6C1-B711-E63A-89626C731C4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3694320" y="13487760"/>
+              <a:ext cx="45000" cy="71280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110237</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>945437</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>143711</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="239" name="Ink 238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4573AB-5F11-FB24-55EE-AC7A66C04179}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2069280" y="13409640"/>
+            <a:ext cx="835200" cy="1730880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="239" name="Ink 238">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4573AB-5F11-FB24-55EE-AC7A66C04179}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2061720" y="13402080"/>
+              <a:ext cx="850320" cy="1746000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>544611</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213663</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>182489</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="243" name="Ink 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E634C5EB-A200-A44D-073C-8BD5E1793DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7603920" y="13948200"/>
+            <a:ext cx="493200" cy="217800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="243" name="Ink 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E634C5EB-A200-A44D-073C-8BD5E1793DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7596720" y="13940640"/>
+              <a:ext cx="508320" cy="232920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396797</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>74951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598218</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>137673</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="244" name="Ink 243">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58F2F67-FF00-55BF-5C4D-C011F826271A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2355840" y="15071760"/>
+            <a:ext cx="2829240" cy="873360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="244" name="Ink 243">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58F2F67-FF00-55BF-5C4D-C011F826271A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2348280" y="15064200"/>
+              <a:ext cx="2844360" cy="888120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499971</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56594</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>149234</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="267" name="Ink 266">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850A7567-69CC-8F6F-49A2-6647E29AD0C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7559280" y="15949800"/>
+            <a:ext cx="1204920" cy="412200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="267" name="Ink 266">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850A7567-69CC-8F6F-49A2-6647E29AD0C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7551720" y="15942240"/>
+              <a:ext cx="1220040" cy="427320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677091</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>177952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2703</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>130093</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="268" name="Ink 267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314A45F9-F2FD-EBB8-4D59-B85B122AADD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7736400" y="15580080"/>
+            <a:ext cx="149760" cy="154800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="268" name="Ink 267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314A45F9-F2FD-EBB8-4D59-B85B122AADD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7729200" y="15572520"/>
+              <a:ext cx="164880" cy="169560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251463</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>198832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>760863</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>184093</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="269" name="Ink 268">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E951E3-A619-EB1F-D58D-FA68C1972B1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8134920" y="15600960"/>
+            <a:ext cx="509400" cy="187920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="269" name="Ink 268">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E951E3-A619-EB1F-D58D-FA68C1972B1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8127365" y="15593385"/>
+              <a:ext cx="524509" cy="203069"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115743</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>32852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>763383</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19912</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="270" name="Ink 269">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FAC1EB-F8D2-4AC7-59BD-CE8ECDDE4520}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7999200" y="15232320"/>
+            <a:ext cx="647640" cy="189720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="270" name="Ink 269">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FAC1EB-F8D2-4AC7-59BD-CE8ECDDE4520}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7991640" y="15225120"/>
+              <a:ext cx="662400" cy="204840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219280</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>145172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>17073</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="271" name="Ink 270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E2A1F5-E811-4E86-0DF8-4115C641583A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6454440" y="15344640"/>
+            <a:ext cx="551880" cy="479880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="271" name="Ink 270">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E2A1F5-E811-4E86-0DF8-4115C641583A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6446875" y="15337440"/>
+              <a:ext cx="567010" cy="495000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202109</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>117452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494429</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>108832</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="272" name="Ink 271">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A258F01-15FD-1EEA-0CF0-C9EEE71C7356}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5613120" y="15316920"/>
+            <a:ext cx="292320" cy="194040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="272" name="Ink 271">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A258F01-15FD-1EEA-0CF0-C9EEE71C7356}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5605560" y="15309374"/>
+              <a:ext cx="307440" cy="209132"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4240,6 +7880,306 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink100.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:13.789"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 12 11311,'-1'-12'5576,"2"44"-8454,4 46 2878,2-10 0,1 1 0,-2-18 0,1-2 0,1 4 0,1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink101.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:13.989"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 11 10951,'-5'-10'6836,"-1"12"-6386,3 19-2069,3 40-2429,9 17 4048,6 11 0,-4-38 0,-2-20 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink102.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:12.773"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">181 2 8612,'1'13'9715,"-7"3"-9356,-7 10-89,13 13-180,15-6 0,34 5 0,16-30 630,12-26 359,-13-26-539,-31-15-450,-49 12-720,-63 40-764,25 23 0,-2 12-810,-5 12 0,4 9 2204,10 8 0,7 0 0,-1 11 0,26-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="333">142 539 8972,'4'-12'8995,"-5"3"-8366,-3 9-179,-3 30-180,13 18-180,19 21 0,24-18 0,17-31 539,1-46 271,-17-30-630,-33-15-360,-46 15-1439,-44 41-1799,-20 49 449,45 3 1,5 8 2878,11-5 0,5 1 0,-1 18 0,21-34 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink103.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:21.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 2292 13919,'-8'1'8635,"4"-1"-6296,44 57-1800,-8-21 1,5 3-810,14 20 0,4 4-1979,6 5 1,1 0-855,-4-5 0,-1-3 3103,-11-12 0,-4-5 0,9 6 0,-28-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="216">758 2486 8252,'-38'-43'4915,"0"-1"0,-11-14-1882,-30 40-2853,10 74-540,10 9 0,-1 13-1079,20-15 0,2 5 0,1 2 1237,0 12 0,3 2 1,3-5-1,0 4 0,6-7 1,11-16-1,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="750">1759 0 11580,'-23'94'252,"1"1"0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-2 5 0,0 0 0,-1 2 0,0-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,1-2 0,0 0 0,2-2 0,0-2 0,2-2 0,1-2 0,2-2 0,2-3 1,2-3-1,3-3-637,-3 35 0,6-7 0,2-4 0,4-5 0,1-2 0,2-4 1,1-1-1,-1-1 100,1 7 0,1-5 0,1-3 0,2 0 1,2 0-1,4 2-538,2-4 1,3 3-1,2 0 1,2 1 0,2-3-1,0-4 1,1-5-1238,12 21 1,2-7 0,2-4 0,1-3 2059,-1-2 0,2-2 0,1-5 0,0-12 0,25 8 0,-3-18 0,17 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283">2543 867 10591,'-24'-8'5397,"17"4"-4678,46 3-629,41 1-1169,-3-1 0,7 3 1079,3 4 0,-1 2 0,-15-3 0,-5 2 0,-14 5 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467">2633 1724 10321,'-6'82'5217,"13"-18"-8006,58-43 1,15-10 2788,3 12 0,9 0 0,-69-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1650">2662 2595 7354,'-75'61'5937,"28"-3"-4812,59 5-2654,36-12-1647,-1-19 0,3-2 3176,8 6 0,-14-2 0,-37-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1983">2585 3728 7540,'-59'71'1709,"0"0"0,15-10 0,7 1-1054,5 5 1,17-1-746,59 23-494,5-53 1,10-6-451,7-3 0,0-1 608,-5 1 1,-7 2 965,17 39 1778,-50 21-1059,-31-29 0,-9 4-405,-7 10 1,-3 2-540,3 2 0,5-1-810,9-6 1,14-6-2205,48 10 1215,8-66 0,9-19 1484,10-24 0,0-12 0,-5-1 0,-3-6 0,-7-10 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2400">3695 846 8702,'-22'-68'2458,"-1"0"1,4 9 0,1 5-480,-1-7-990,13 49 720,35 95-1260,-8-24 1,5 10 0,1 9-621,-3-8 0,3 7 0,1 5 0,0 3 0,-1 2 276,-2-3 0,0 2 0,0 3 0,-1 2 0,0 1 0,-1 1-293,-1-5 1,-1 2 0,0 1-1,-1 1 1,-1 1 0,-2 1 0,-1 0 220,-2-6 1,-1 0 0,-2 2-1,0 0 1,-1 1 0,-2-1 0,-1 0-1,-2 0-90,-2-1 1,-1 0 0,-1-1 0,-2 1 0,-1-1 0,-1 1 0,-2-2 0,0 1-407,-3 9 0,0 0 1,-2 0-1,-2-1 1,-2 0-1,-2-1 1,-3-2-315,-3-2 0,-2-1 0,-2 1 0,-2-3 0,-3-1 0,0-2 0,-2-3-783,-3 0 1,-4-2 0,-1-2 0,0-3 0,-1-3 0,2-4 1379,-8 14 0,1-5 1,-1-5-1,0-5 1,-11 7-1,-1-7 1,7-10-1,12-14 1,1-1-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink104.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:30.158"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 155 7353,'-17'-35'539,"20"-8"-539,26 8 0,-7 8 0,6 12 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink105.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:53:53.341"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">187 16 10051,'12'-16'6656,"-11"31"-4947,-13 41-854,-1 3 0,-2 11-376,2 1 1,0 8 0,0 4-357,2-9 0,0 4 0,1 2 0,0 5 200,1 0 1,1 6 0,0 2 0,1 0 0,0-3-375,-1 9 0,2-2 0,0 0 0,1 4 177,1-8 0,0 4 0,1 2 0,1-2 0,1-3-59,1 8 1,1-4-1,1 0 1,1 4-33,1-11 1,0 2 0,1 1 0,2 0 0,1 0-54,1 0 0,1 0 0,2-1 0,1 0 1,1 0-73,1-4 0,1 1 0,2-2 0,1-1 0,0-2-630,5 11 0,1-3 1,1-2-1,1-4-1254,7 10 1,1-5-1,2-7-1303,-4-20 0,1-4 0,-1-8 3156,-1-2 1,-2-10-1,15 2 1,-35-39-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="733">1467 529 9062,'-37'-60'9804,"-3"5"-9174,2 14 449,-3 25-359,13 47 359,4 47-719,19-17 0,7 3-135,7 4 0,8-3-136,7-8 1,10-9 90,53 0 225,-35-52 0,-1-17-180,-5-18 0,-7-12-135,-7-12 0,-12-5-1,-12 1 1,-13 3-90,-12 11 0,-12 9-809,-54 8-3329,-9 63 1349,48 10 1,7 10 2788,8 7 0,8 3 0,2 41 0,14-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1150">1410 1582 12750,'-41'67'9830,"18"-20"-8809,19 7 1,12 4-1022,34 19 45,-10-36 0,6-5 45,54-1 270,-2-53 89,-24-43-179,-42-25-90,-52 0-630,-42 23-1079,22 45 0,-5 12-900,-2 12 1,1 13-2488,0 21 1,6 6 4741,-15 22 1,20 22 0,32-50 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42803">1966 1113 7173,'-26'-18'6656,"-24"2"-6027,1 14 1,-7 4-360,-4 2 0,-3 4 0,-26 7 0,-2 7-90,8 6 0,3 5-135,10-2 0,4 4-45,1 10 0,7 5 44,16 0 1,6 3 45,-2 6 0,2 2 180,2-1 0,3-2-90,-11 25 90,12-25-180,13-27 0,8-11-90,10 5 90,31 5-90,11 7 45,-3-8 0,4 1-45,39 24 0,-35-25 0,0-2 359,39 8 181,-12-22-270,-10-14 0,-3-3-90,2 5-90,9 9 0,13-1-90,-34-7 0,2-2 0,7-4 0,1-4 0,4-4 0,-1-5 45,1-6 0,-3-5 314,-7-7 1,-5-5 45,-7-5 0,-8-6 44,-9-7 1,-11-5-225,-11-10 0,-16-4-180,-22-9 0,-17 4-105,8 30 0,-7 4 0,-6 6-618,-14 2 1,-7 8 0,-3 10-583,-2 9 1,-2 10 0,1 8-2018,7 7 0,1 7 0,6 1 3174,-9 2 0,11 5 1,-14 32-1,58-33 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink106.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:38.861"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">180 36 10141,'-85'16'8365,"21"-2"-8005,34-1 0,57-5-1619,41-5-720,-15-2 0,3-2 1979,1 0 0,-4-1 0,15 0 0,-26 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="150">239 250 9242,'-59'20'6296,"3"1"-6026,16 5-1439,78-13-1305,21-10 0,12-3 2474,-1-1 0,0-1 0,4-1 0,-6 0 0,10 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500">1157 220 11940,'-27'-26'7646,"-10"17"-6207,-23 28-719,13 36-361,28 33-449,23-33 0,9-1 45,9-2 1,8-7-46,53 7 584,-28-57 1,-2-19-45,-4-20 0,-9-12-316,-5-8 1,-16-6-225,-32-16 0,-22 6-1304,-10 26 0,-12 10-1080,-20-1 1,-6 15 2473,3 27 0,4 12 0,23 0 0,4 4 0,-35 28 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink107.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:44.695"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">556 151 11580,'3'-13'4498,"5"-1"-3869,30-4 361,49 3-721,-27 8 1,8 0 0,5 1-30,20 0 0,7-1 0,4 1-410,-12 1 0,3 0 1,2 0-1,-2 0 215,-4 0 0,0 1 0,0-1 0,-2 2-23,-6-1 1,0 1-1,-2 0 1,-4 1 37,7 0 0,-5 1 1,0 1-32,-3 1 1,0-1 0,-1 1 0,-4 1 0,0-1 0,-1 1-30,4 0 0,0 2 0,0 0 0,0 1 0,0 1 0,0 1 30,-1 2 0,-1 2 0,1 0-30,-1 0 0,1 1 0,0 1 180,1-1 0,0 0 0,0-1-90,2 0 0,0-2 0,0 0-30,1 0 0,0-2 0,0 0-60,1-1 0,0-1 0,1 0-98,1 0 0,0-2 1,0 1 97,1-1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,-2 1 0,-1 0 0,0 1 0,-2 0 0,0 1 0,-2 0 0,-3 0 0,-1 1 0,0-1-7,-3 0 0,0 0 1,-1 0 51,29 1 0,-2 0-45,-7-1 0,-3-1 402,-7 0 1,-2 0-403,-10 0 0,-3-2 93,-4 0 1,-1-1-94,-4-2 0,-1 0 212,2-2 1,-1-1-168,-1 0 0,-1-1 338,47-3-113,-12 2 90,-17 2-180,-24 1 270,-13 1 629,-9 15-269,-6 22-361,2 26-224,-8 10 0,-1 9-180,-1-12 0,-1 6 15,2 5 0,0 8 0,0-3-15,0 11 0,-2-3-45,-1-26 0,-1 0 0,-2 0 0,-3 27 0,-2-4 0,-3-21 0,-2-2 0,-1 4 0,-3-2 0,-2-13 0,-1-3-90,-16 38 90,-2-15 90,-9-4-90,-6-20 0,0-9 0,-31 3-180,-6-20 135,30-12 0,-5-4 0,-22-3 0,-2-5 45,15 0 0,-1-3 0,-23-1 0,-2-1-45,6 0 0,2 0 45,6 2 0,-1-1-30,14 2 0,-1 0 0,0 1 30,-26 2 0,2 1 0,8-2 0,0 1 0,-6 1 0,0 0-90,6-1 0,2 1 90,3-1 0,-3 1-30,13 0 0,-5 0 0,1 0 0,-3-1 0,0 0 0,0-1-134,4 0 0,0 0 1,-3-1 163,-12-1 0,-3-2 0,1 0-30,1-2 0,2 0 0,-1-1 30,1-1 0,0 0 0,-2 0-178,12 0 0,-3-1 1,1 0-1,2-1 178,-9 0 0,2-2 0,0 1 0,-4-2 0,-1 0 0,3 0-109,7 2 1,3 0 0,0 1 78,6 0 0,0 1 0,1 2-15,-29-1 0,1 3 0,5 3 0,2 1 0,1 2 1,1 0-62,3 1 1,1-1 60,1-1 0,0-1 0,0-1 0,0-1-90,-3-1 0,-1-1 45,-8-2 0,0-1 45,4-2 0,0-1 0,-3-1 1,2-2 44,8 0 0,1-1 182,6 3 1,1 1-228,1 3 0,1 4 359,4 3 0,2 4-314,6 1 0,2 2 260,-39 9-440,31-5 215,28-6-125,12-17 90,15-21 0,4-34 0,10 15 0,2-5 0,3-14 0,1-3 0,2-10 0,-1-3 0,0-5 0,-3 0-45,-3 0 0,-3 1 45,-3 0 0,-2 1 0,-3 2 0,-1 0 0,0 8 0,1 1 0,1 8 0,2 3-45,3 9 0,2 2 45,7-37 0,5 12 0,4 12 0,1 10 0,2 9 0,4 7 0,2 6 0,3 7 0,-3 6 90,-6 9-90,-4 4 0,-6 3 0,2 2-90,17-5-1979,9 6-4227,30 6 6296,2 11 0,-24-2 0,-11 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink108.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:53.512"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">387 257 9152,'-52'-29'9444,"31"3"-6925,47-16-2399,26 23 0,23 8 0,4 0 0,11-1 0,5 2 0,11 0-478,-22 5 0,7 0 1,6 1-1,1 0 1,-1 0-1,-3 2 376,5-1 0,-1 2 0,-2 0 0,0 0 0,2 0-144,2 0 0,3 0 0,-1 1 0,-4-1 1,-7 1-350,-6-1 0,-4 0 0,-7 0 0,-6 0-965,14-4 1,-15-1-1349,0-4 2788,-79-4 0,8 8 0,-29-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="300">567 572 10411,'-23'-30'9715,"7"12"-6297,-16 11-2969,18 45-1528,2 50-1260,14-26 1,4 5-2578,4 8 1,2-2 4668,-2-20 0,1-4 1,16 34-1,-11-54 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="984">992 865 10411,'10'-94'9830,"-3"24"-7157,2 40-2403,17 34-90,27 22-90,26 35-90,-35-23 0,0 1 45,-4-2 0,-4-1-45,12 19-90,-52-20-450,-42-28-1079,-42-23 494,39-4 1,2-6 89,4-4 1,8-5-315,1-42 809,61-5 450,4 43 0,7 4 585,4 4 0,3 4 2113,37-5-539,-26 28-1079,-18 23-91,-14 20-809,-4 17-1529,11 10 270,27-7 989,-12-39 0,5-10 135,7-14 0,1-12 360,-4-10 0,-8-11-46,-12-6 1,-13-5 90,-32-39-270,-49 30-630,-29 40-3058,9 41-2608,32 31 6206,38-3 0,29-6 0,10-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1334">1955 736 9602,'44'-32'4915,"0"0"0,30-34 1985,-52 24-6630,-16 47-540,0 37-540,12 55 495,8-47 1,10-5 224,18-6 0,11-12 90,14-12 0,4-16 180,-1-16 0,-6-13 44,-11-12 1,-15-10-135,-26-8 0,-20-2-315,-24 1 1,-18 6-1126,-10 10 1,-8 10-1170,-6 12 1,0 14-7313,-34 31 8854,44 7 1,29 3 0,21-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1618">2807 549 10411,'64'-53'9830,"-16"12"-6797,-8 5-2584,-22 29-89,4 35-450,5 25-45,7-11 0,6-1 135,34 13 0,-22-30 0,0-11-1349,7-29-2429,-49-17-539,-53-10 4317,-10 22 0,-5 5 0,-34-3 0,40 13 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2000">183 1122 8792,'-83'-6'9265,"49"5"-7736,-32 2-720,125 13-179,29-8 0,23-3-406,-24-2 1,9-1 0,6 0 0,3-1-650,-17 0 1,3 0 0,3-1 0,2 1 0,1-1 0,-1 0 184,2-1 0,2 0 0,1 0 0,-1 0 1,0 0-1,-2 0-330,-6 1 0,2-1 1,-2 1-1,-2-1 0,-2 1 1,-5-1-1165,13 0 1,-4 0 0,-5 0-1,-6-1 1734,-4 0 0,-7 0 0,-10 0 0,23-6 0,-63 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2367">2968 336 7982,'-25'-57'9830,"26"33"-5628,43 36-3752,12 32 0,6 16-585,1 7 0,-5 8-915,-18-18 1,-4 4 0,-10 0-1605,-15 25 1,-20-3 2653,-15-13 0,-11-8 0,1-10 0,-4-8 0,-35 11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink109.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:52.929"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">95 93 9691,'-12'-52'9265,"2"17"-8815,-7 29-90,9 56-1889,6 32 44,6-31 1,4 1 1484,5 2 0,1-5 0,2 1 0,0-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183">64 327 9332,'-42'-42'9830,"31"19"-9136,1-15-4022,92 29 3328,-24 8 0,2 2 0,-3 0 0,-1 0 0,-5 3 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4277,6 +8217,127 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6300">3938 358 7803,'-14'-24'9830,"0"0"-6258,1 3-2763,3 14 361,9 47-720,5 30-361,1-19 1,0 2 0,7 44-90,-3-32 0,-9-75 0,-5-52 0,2 12 0,-1-6 0,2-8 0,0 2 0,1-25 360,3 19-90,12 53-270,12 53 90,17 29-180,-6-10 0,3 1-45,-7-15 0,0-4 90,1 3 0,2-10 45,28-29 0,-26-40 90,7-18 90,-15-10 810,-13 28-811,0 15-179,-6 40-269,3 15-361,1 14-449,8-6 809,3-22 90,7-24 360,-1-31 269,-11-6-269,-14-8-180,-28 31 0,-4 14-629,-13 34-2699,22 27 1349,14-2 360,29 1 989,28-43 810,-2-18 629,10-31 1080,-22-6-899,-14 10-810,-8 14 269,-13 42-449,-2-4 0,0 24 0,0-27 90,4-5 180,9-30 630,3-11 809,7-13-630,-7 16-359,18 23-1800,-9 27-4407,16 20 5487,-8 8 0,-15-21 0,-8-8 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7616">5489 311 10501,'26'-7'3058,"5"4"-9444,36 3 6386,-23 4 0,-16 1 0,-19-2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7783">5500 501 8432,'-54'21'7736,"31"-16"-11784,64-20 1979,35-12 1218,-26 12 1,1 1 0,31-5 0,-18 7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink110.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:51.996"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">396 138 10321,'-48'-55'9175,"-22"10"-8815,-24 26-181,43 24 1,3 9-90,-19 40-180,50 23-179,58-7 179,38-21 180,15-25 359,-16-19 721,-14-3 539,-32 15 180,-26 19-630,-32 11-719,-35 5-1350,-17-18-4407,-2-18 0,20-25 5217,26-22 0,21 10 0,12-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="350">605 206 9871,'16'-6'9830,"-5"10"-7427,-12 17-2133,1 13-270,-1 8-719,40-4 449,13-26 360,14-15 180,-11-47-91,-42-14-179,-26-7-809,-52 24-2159,4 47-181,8 26-4676,65 34 7825,8-25 0,18-1 0,-26-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="633">918 294 8522,'52'-33'3276,"-1"0"1,2-4 0,-12 4 1465,-29 14-4382,4 4-1,-9 42-538,15 38 89,20 6 90,27-11 359,8-54-179,-22-47-450,-55-45-1349,-31 37 0,-18 4-765,-24-1 1,-15 10-496,16 18 1,-6 5 0,3 4 2393,-17 1 0,1 7 1,-5 7-1,6 4 1,33-1-1,0 0 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink111.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:50.712"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 45 8252,'-19'-30'9265,"-20"16"-7376,-27 29-900,5 46-809,40-11 0,13 7-90,21 7 0,16 0-45,15-3 0,10-6 45,5-11 0,3-12 764,-5-13 1,-6-15 674,3-32-899,-81-30-495,-18 27 0,-12 7-495,-11 4 0,-4 9-1709,4 11 0,7 11-5846,-1 32 7915,55 1 0,37-6 0,9-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="350">810 279 9152,'59'36'4915,"0"0"0,-12 19-2859,16-71 0,-9-25-1876,-64-34-135,-6 25 0,-10 2-360,-13 7 0,-8 10-1664,-3 14 0,1 15-7852,-21 43 9388,34 5 0,28-1 0,10-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="734">1537 230 9602,'11'-42'9830,"-6"-1"-6438,-21 12-2582,-13 29 179,-7 38-629,18 37-450,38 19 0,36-11 90,29-33 719,7-57 271,-24-53-630,-45-34-1080,-40 44 0,-15 6-1844,-15 10 1,-11 15-1395,-17 18 1,-2 17 3957,12 10 0,4 8 0,8 6 0,6 3 0,-8 28 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink112.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:48.129"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">304 94 8522,'-1'-34'8725,"-17"4"-6116,-25 1-1620,-34 37-269,-6 41-361,16 24-224,53-13 0,16 2-135,19-13 0,12-4 45,11 4 0,7-8 45,4-18 0,1-12 990,31-23-451,-49-29-359,-71-11-720,-50 15-1304,30 26 0,0 8-3283,-23 19 5037,73 12 0,25-4 0,39-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="350">701 229 9691,'24'-45'9085,"-15"9"-6926,-33-3-1349,-19 36-451,-12 18-269,26 50-629,50 2 179,26 2 270,46-34 720,-18-45-1,-10-25-89,-54-46-450,-60 17-270,-23 7-3328,-23 62-2069,62 41 5577,36 18 0,19-20 0,11-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="650">1031 321 8522,'43'-59'9830,"-6"-5"-5538,-32 34-3123,-1-2-989,-6 34-539,12 26-361,23 28 630,9-14 810,21-21 539,-25-53-989,-27-19-405,-29 6 0,-18 2-2069,-25 12 0,-11 10 135,-1 4 1,-2 15 2068,11 18 0,-2 11 0,9 2 0,7 3 0,7 5 0,-1 14 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100">452 983 9062,'-22'-45'9830,"-8"-3"-7877,-12-3-1683,-6 22-180,0 37-450,11 35-449,24 22-181,35-5 630,31-18 270,17-20 450,1-4 270,-10 7 449,-19 16 91,-27 13 269,-41 5-900,-44-7-2068,-23-20-3058,-3-30-5244,36-32 9657,32-1 1,25 1 0,7 22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1734">841 931 9602,'17'-4'9830,"-8"16"-6888,-11 15-2582,-3 26-540,7 13-989,27 0 719,26-20 720,17-38 1169,-8-49-719,-34-41-450,-49-12-450,-43 26-1619,-21 51-1799,27 60-540,56 42 3148,25-39 1,13-3 1618,9-8 1,7-9 944,2-14 1,0-11 1483,31-37-180,-28-21-359,-26 2-2339,-24 28 90,-14 42-360,0 32-360,10 24 270,24-2 270,22-23 989,5-33 181,-13-39-901,-41-28-1618,-49-11-4498,-27 9 5757,-7 20 0,33 21 0,23 10 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink113.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:47.079"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 192 11490,'7'-5'8905,"6"7"-7915,45 31-586,-11-10 1,6 2-720,19 9 1,4 0-1530,8 2 0,0-1-1529,-8-3 0,-5-3 3149,-18-7 0,-6-3 0,7 3 0,-38-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200">781 80 8432,'-53'-49'8815,"-5"22"-7735,-38 23-946,42 28 1,2 14-1169,0 11 0,4 9-3644,8 10 1,8 2 4677,11-19 0,6-4 0,8 19 0,9-53 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5337,11 +9398,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10666">5760 3476 10501,'-3'-14'7466,"4"1"-7017,13-1 181,35-6-225,3 6 0,6 3-270,-5 1 0,1 2-1,18 1 1,-1 7-45,17 16-90,-11 18 0,-29 14 0,-26 15-90,-23-1 90,-16 0 0,-19-6 90,-9-8-90,1-9 90,-7-4 180,13-13 450,1-4 269,14-3-359,12-3-91,26-3-179,30-2-270,39-6-45,-23-4 0,3-2-45,8-3 0,2-2-90,0-2 0,-2-1-900,-8-2 1,-3 0-2339,31-14-1709,-31 6 5037,-25 7 0,-22 9 0,-8 3 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13183">4545 2095 7803,'-11'-4'7285,"-4"-2"-6655,-62-21-495,23 13 0,-6 1-45,-20-2 0,-5 2-90,-6 3 0,0 2 90,11 5 0,4 1 45,14 3 0,6 0 134,-20 0 1,33 0 270,8 1 359,14 20-179,1 22 269,8 43-629,10-22 0,4 7-90,3 17 0,2 7-255,-1-17 0,1 3 0,1 1 75,1 4 0,0 2 0,2 0-60,2 7 0,1 1 0,2-1 0,0-10 0,1-1 0,3-1 0,0-5 0,4-1 0,3-5 0,3-7 0,5-4 0,1-6-30,11 6 0,7-10-540,21-7 1,9-13-841,-17-20 1,3-8 0,3 0-360,12 0 0,3-1 0,3 0 1442,-13-2 1,3-1 0,0 0 0,-5 0 0,6 1 0,-5 0-1,0-1 1,-6 0 0,-1-1 0,1 1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13883">7523 2230 8522,'-8'-46'5487,"11"3"-4228,32-19-629,10 15 719,13-3 90,-13 20-449,-16 10 89,-6 13 180,-6 34-359,12 49-675,-9-11 0,2 9 74,-4-11 1,2 4 0,1 3-394,2 12 1,0 3 0,0 3 182,-3-14 1,-1 2 0,0 1 0,-1-1-30,5 22 0,-2-1 0,-1 1 0,-1 1 0,-1-1 0,-3-4-14,-4-20 0,-3-4 1,-3-3-47,-1 21 0,-10-9-585,-11-23 1,-12-10-2160,-28-14 1,-13-12-945,-10-12 0,-4-8 3688,0-4 0,3-4 0,14-2 0,7 0 0,-6-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="260142">17 3958 8432,'-8'-14'7916,"0"-3"-5398,8-12-2338,12 5 900,17 8-271,13 18-269,2 21-270,-9 19-91,-15 9-89,-18 2-90,-18-11 0,-5-12 0,-5-16-90,20-24 90,17-16 0,19-15 0,14-7 90,1 2 1350,-5 6 1348,-11 11-1169,-28 29-809,-9 18-810,-11 29 0,11 9-990,18 4-5126,17-13-451,19-17 6567,5-24 0,-7-12 0,-7-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="261201">756 3982 10141,'1'-12'9445,"2"5"-9085,14 15 899,13 22-989,3 8 0,12 16-180,-14-18-1,-1-4-89,-10-19 0,3-28-89,-6-7-3240,7-24 3329,-11 14 0,-5 7 0,-4 14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="262776">577 3665 8702,'-18'3'1169,"-15"12"-989,-21 17 180,-14 11-180,1 1 0,14-9 809,18-11 1,14 0 269,5 10-539,4 18-361,7 8-269,10-3 90,17-22 900,15-31 269,0-32-90,-16-21-629,-30-1-360,-36 23-270,-15 27-270,-8 41-540,35 8 181,29 13 449,40-27 450,19-26 629,-7-29 1,-22-20-631,-26 3-179,-37 15-1979,1 29-3418,4 20 5307,33 5 0,5-8 0,11-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="263494">1210 4000 10771,'-15'-21'7016,"-22"2"-6656,-8 14-91,-8 7-89,11 17-270,25 14 0,13 0 1,26 2 89,9-29 0,8-13 539,1-24 451,-10-5-361,-6-5 1,-11 6 90,-6 0 179,-4 9-899,-1 4-8005,-2 5 4227,-3 13 3778,1 4 0,-1 4 0,1 1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="264761">1336 3964 10231,'2'-10'4947,"-2"1"-3418,-6-5-539,-3 3-810,-3 3 90,-3 12-90,2 14-91,1 8-89,4 3 0,7-1 0,3-9 0,7-1 360,-1-13 540,3-1-271,-2-6-359,-1-1-270,1 1 0,0 2 0,3 0 90,4-3-90,6-11 0,0-14 0,0-21 360,-8-14 450,-7-4 269,-6 6-809,-3 22-180,-7 24 90,2 32-180,3 30-90,13 28-450,16 8 0,13-8 360,8-28 270,1-36 630,-5-35 1079,-12-20 90,-11-3-810,-11 5-899,-6 40-450,2 12-539,3 29 269,4-5 270,9-14 270,2-24 270,4-20 360,-3-12-271,-6 4-359,-5 17 90,2 25-359,0 15-271,7 11 270,-2-10 180,10-18 0,-2-21 90,2-12-90,3-14 90,-8 13 90,13 6 0,-10 23 0,5 16 180,-11 12-90,-12 3-270,-15-4-5757,-33-6-3984,-19-13 8045,3-4 0,-1-6 1,28-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-169354.73">17 3958 8432,'-8'-14'7916,"0"-3"-5398,8-12-2338,12 5 900,17 8-271,13 18-269,2 21-270,-9 19-91,-15 9-89,-18 2-90,-18-11 0,-5-12 0,-5-16-90,20-24 90,17-16 0,19-15 0,14-7 90,1 2 1350,-5 6 1348,-11 11-1169,-28 29-809,-9 18-810,-11 29 0,11 9-990,18 4-5126,17-13-451,19-17 6567,5-24 0,-7-12 0,-7-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-168295.73">756 3982 10141,'1'-12'9445,"2"5"-9085,14 15 899,13 22-989,3 8 0,12 16-180,-14-18-1,-1-4-89,-10-19 0,3-28-89,-6-7-3240,7-24 3329,-11 14 0,-5 7 0,-4 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-166720.73">577 3665 8702,'-18'3'1169,"-15"12"-989,-21 17 180,-14 11-180,1 1 0,14-9 809,18-11 1,14 0 269,5 10-539,4 18-361,7 8-269,10-3 90,17-22 900,15-31 269,0-32-90,-16-21-629,-30-1-360,-36 23-270,-15 27-270,-8 41-540,35 8 181,29 13 449,40-27 450,19-26 629,-7-29 1,-22-20-631,-26 3-179,-37 15-1979,1 29-3418,4 20 5307,33 5 0,5-8 0,11-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-166002.73">1210 4000 10771,'-15'-21'7016,"-22"2"-6656,-8 14-91,-8 7-89,11 17-270,25 14 0,13 0 1,26 2 89,9-29 0,8-13 539,1-24 451,-10-5-361,-6-5 1,-11 6 90,-6 0 179,-4 9-899,-1 4-8005,-2 5 4227,-3 13 3778,1 4 0,-1 4 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-164735.73">1336 3964 10231,'2'-10'4947,"-2"1"-3418,-6-5-539,-3 3-810,-3 3 90,-3 12-90,2 14-91,1 8-89,4 3 0,7-1 0,3-9 0,7-1 360,-1-13 540,3-1-271,-2-6-359,-1-1-270,1 1 0,0 2 0,3 0 90,4-3-90,6-11 0,0-14 0,0-21 360,-8-14 450,-7-4 269,-6 6-809,-3 22-180,-7 24 90,2 32-180,3 30-90,13 28-450,16 8 0,13-8 360,8-28 270,1-36 630,-5-35 1079,-12-20 90,-11-3-810,-11 5-899,-6 40-450,2 12-539,3 29 269,4-5 270,9-14 270,2-24 270,4-20 360,-3-12-271,-6 4-359,-5 17 90,2 25-359,0 15-271,7 11 270,-2-10 180,10-18 0,-2-21 90,2-12-90,3-14 90,-8 13 90,13 6 0,-10 23 0,5 16 180,-11 12-90,-12 3-270,-15-4-5757,-33-6-3984,-19-13 8045,3-4 0,-1-6 1,28-2-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5903,6 +9964,70 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:01.743"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 72 9152,'-24'-40'8815,"8"8"-6836,32 39-810,37 52-899,-8 6 0,2 12-151,-14-11 1,-2 5 0,-3 0-150,-3-5 0,-3 0 0,-6 1-900,-7 6 1,-7 1 0,-11-7 929,-23 3 0,-8-9 0,12-10 0,-4-7 0,-10-17 0,0 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:51.694"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">583 701 7263,'11'-5'7466,"-2"-1"-5308,-2-3-1528,-10-20 449,-13 0-359,-15-12-360,-7 18-180,-21 18 0,5 28-90,-10 33 179,19 29-44,30-36 0,7 2 90,9 0 0,9-1 494,37 24-269,31-36-270,-28-35 0,1-11 134,-2-9 1,-3-7 180,-3-6 0,-5-4 404,11-35-269,-27 10-361,-20 5-89,-11 16-90,-4 5-180,9 43-90,10 20-1349,13 50-4228,9 16 2429,-13-40 0,0-1 3238,-1-4 0,-1-5 0,3 14 0,-6-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="233">1025 1139 12390,'1'-33'7106,"1"5"-6476,1 25-1,0 34-449,-1 26-900,0 31-3687,-3-4 4407,1-16 0,1-32 0,0-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="583">1324 766 8792,'-8'-13'9830,"-1"2"-7337,9 14-2043,25 32 179,24 30-1169,-11-17 1,3 2-1530,0 0 0,1-2-2833,-4-6 0,-3-4 4054,9 9 0,-21-25 0,-19-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="816">1711 848 9422,'-21'-59'9830,"-2"15"-9136,-3 35 25,-9 41-449,-12 47-855,21-27 1,-1 4-1485,1 3 0,1 0 2069,3-4 0,4-6 0,-3 8 0,11-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1316">1930 383 8342,'1'-18'9830,"0"1"-7337,0 34-1953,1 38 0,3 42-271,3-20 1,4 4-225,2-12 0,2 0-135,2 1 0,4-3-405,4-11 1,3-10 44,19-4 360,1-22 90,-12-50 270,-23-7 90,-19-20 180,-32 13-451,-9 15-1348,-27 25-4857,15 33 6116,13 8 0,19-7 0,24-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1549">2284 900 8612,'12'-17'8635,"-2"7"-5397,11 21-2608,-10 18 0,2 47-451,-12-20 1,-3 2-900,0-2 1,0 0-1530,-2 14 1,0-2 2248,-2 25 0,2-33 0,1-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916">3029 725 8882,'-10'-19'9830,"3"6"-6887,-2 8-2404,11 38 631,7 32-946,-1-13 1,2 6-810,1 2 1,0 2-1620,0 0 1,0-1-4813,7 34 7016,-7-34 0,-6-36 0,-3-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2149">2848 979 11580,'-38'-13'9830,"17"9"-7966,52 11-1415,42 4-1843,-20-6 0,4-3-1530,5-4 1,-1-1 2923,-7-3 0,-5-1 0,9-3 0,-27 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9299">248 18 7982,'1'-17'8995,"-17"27"-6926,-9 25-450,-8 24 0,-2 11-675,6-3 1,2 5-466,2 1 1,0 7 0,6 2-599,9 8 0,6 3 0,4 0-31,3-7 0,3 0 0,9 1-975,3-13 1,4 2 0,8-3 0,8-9-2153,31 6 0,15-11 0,-4-7 2790,-23-10 0,-2-5 0,4-5 0,20-4 1,5-7-1,-9-7 0,-21-9 0,0 0 1</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -5930,6 +10055,340 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">46 289 8882,'-10'-19'9830,"1"7"-8686,1 6-425,-1 25-179,3 18-360,2 19-90,4-4 0,4-2-90,1-38 0,2-30 180,-2-42 539,-1-25 181,-4-2-451,-1 19 1,-2 22-270,15 37 0,6 27-90,19 23-90,8 9 90,9-13 0,3-28 0,-4-33 539,-11-19 1350,-8-15-809,-13 14-1170,-6 11 0,-1 40 0,-2 34-3688,5 31-630,0-13 1,4 2-271,1-15 1,1-2 4587,20 40 0,-11-49 0,-24-31 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="317">743 514 9152,'35'-24'8545,"-13"5"-4497,-4-13-1890,-17 13-1348,-5 1-360,-7 43-630,11 13-1080,7 30 91,23-15 989,6-24 90,5-35 1080,-11-40-541,-14-12-89,-22-23-899,-31 20-2250,-4 24-7042,-14 35 8893,30 20 0,5 6 1,21-13-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1000">1406 448 8612,'41'-40'9830,"-20"-5"-7247,-30-8-1504,-26 19-629,-15 24-90,-10 46-180,14 29-180,17 20-90,41 2 0,21-30-90,34-28 180,6-66 0,-11-23 0,-32 6 0,-7-7 405,-13 3 0,-7 0 269,-3-4 1,-5 1-271,-2 9 1,-4 4 135,-11-15 270,-5 53-451,14 53-269,16 15 0,9 8-135,3-8 0,6 0-315,14 16 1,9-8 44,0-28 0,4-11 225,36 0 90,6-56 900,-40-41 539,-18-17-1169,-36 7-270,-29 39 0,-15 48 0,7 50 0,31 35-2654,19-41 1,11-3-7178,41 29 9747,0-35 1,-19-26 0,-22-18-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:58.510"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">378 284 10321,'-69'7'2457,"-1"-1"1,0 1-1,-14-3 1,20 16-807,44 35 1,21 6-1562,32 9 0,32-38-90,16-47 314,-38-9 1,-3-8 1214,27-41 360,-19-3-899,-25 29-990,-15 26 0,-4 36-540,3 37-5217,12 33 2654,-5-30 0,3 1-1395,3-1 1,-1-4 3649,11 21 0,-9-33 0,-16-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">654 772 9961,'18'-27'8006,"-1"-12"-2609,-7 8-3149,2-6-1258,0 25 179,12 28-719,-3 26-270,1 24-270,-12-7-270,-6-13 360,4-37-90,10-42 90,7-17 90,16-28 0,6 18 180,-7 18-90,15 30-270,-23 43-1619,2 10-4318,-11 25-3804,-6-8 8915,-5-17 1,-2-11 0,-7-26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="667">1389 343 10681,'-18'-32'9830,"10"19"-6528,10 14-2222,41 52-1170,14 9-1889,-17-18 0,2 0-675,-4-6 1,-1-5 2653,20 15 0,-28-24 0,-12-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">1743 291 8612,'-12'-20'9830,"-13"0"-6348,-10 9-3032,-14 29-540,-4 46-1664,27-19 0,2 6-1799,3 4 0,4 0 3553,-4 30 0,14-35 0,7-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283">1840 150 8702,'15'-51'9830,"-1"0"-3289,-3 7-5102,-6 40 270,-7 63-1484,1 6 0,1 6-225,1-4 0,3 2 0,4 18 0,7-3 0,7-23 0,5-7-135,1-10 0,4-6-45,35 3 180,-3-63 270,-29-28-90,-14-21-180,-57-17-180,-20 31-2519,-16 11-6475,4 53 9174,37 16 0,7 3 0,23-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1717">2221 411 10141,'30'-26'9830,"5"12"-2480,14 21-6720,-10 26 90,-8 31-720,-19 15 0,-10 7 0,-4-14 0,1-11 0,6-41 0,11-27 0,18-40 0,19-17 0,12-2 0,16 20 0,-19 27 0,0 30-1979,-35 36-5937,-14 16 7916,-16 14 0,-4-34 0,2-12 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:57.360"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 29 15538,'11'8'-3958,"33"-8"3958,12-10 0,-7 1 0,-8 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="133">644 30 11760,'12'2'-4587,"3"-3"4587,11-5 0,-14 2 0,5-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="266">1112 22 8252,'19'1'2249,"0"-1"-2249,7 1 0,-14-1 0,5 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="350">1467 0 5914,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:56.743"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">152 34 9152,'-21'-25'9264,"7"16"-7105,-3 29-1349,21 47-585,3-11 0,1 3-1260,3 6 1,2 1-1170,-1-1 0,-1-2 2204,-3-9 0,-1-6 0,1 8 0,-5-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167">61 580 9512,'-35'-21'9830,"10"1"-9316,34-13-3932,45 0 3418,-5 14 0,3 2 0,36-8 0,-9 10 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:54.677"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">180 335 8792,'22'-83'8455,"-2"7"-4587,0 1-2609,-12 60 450,-11 62-1304,-2 10 0,1 9-270,3 18 0,3 5-45,5-3 0,6-2-90,5-7 0,5-6 0,1-21 0,5-9 89,27-4-89,-7-45 0,-14-35 0,-23-23 0,-24-18 90,-21-5-90,-11 4 90,-3 13-90,-3 18 0,-4 20-180,-7 21-1978,-6 27-2430,6 33-2518,16 26 7106,22-6 0,16-19 0,9-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">322 412 8792,'-2'-27'8545,"1"5"-7286,12 18 91,13 44-1036,-2 5 1,0 7-135,4 19 0,-1 6-135,0 6 0,-2 1-585,-3-3 1,-1-4-1620,-2-14 0,1-5 2159,21 18 0,-19-39 0,3-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700">930 899 8432,'-8'-30'9715,"4"0"-8456,14 2-629,5 11 719,29 27 180,-21 24-450,3 19-179,-27 28-540,-6-11-270,1 2-2429,17-12-2159,17-29 631,18-11 3867,25-35 0,-35 6 0,5-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1266">1380 124 9512,'-20'-66'9804,"3"12"-8725,10 50 91,6 37-496,3 16 1,4 10-360,3 18 0,4 4-270,-1-6 0,3-1-1,7 6 1,6-7 45,32 5-90,-1-34 90,12-52 180,-27-40 180,-14-24-270,-35 1-270,-39 21-2878,-26 29-2249,-7 26 5217,18 13 0,27-4 0,21-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1733">1932 489 10501,'-5'-12'7646,"9"5"-7287,5 10 721,7 27-1,-11 27 1,-14 26-1,-12 5-90,2-6-359,18-18-450,27-16-1619,26-16-3329,19-14-2517,8-15 7285,-15-6 0,-22-2 0,-24 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:38.744"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">331 112 9152,'-5'-15'8275,"-4"22"-6926,4-1-809,-10 63 90,-1 24-496,5-29 1,0 2 180,0-3 0,2-4 675,-4 24-631,7-59 91,6-56-360,2-59 225,4 28 0,2-2-46,0 0 1,3 1 135,2 9 0,3 5 404,16-8-269,15 48-270,0 40-180,12 34-2429,-10 17-1798,-9 1 719,-17-9 2158,-26-23 990,-27-27 1080,-23-30 359,-5-24 1,11-19-1,37-8-90,43 2-89,44 17-451,17 23-269,-32 23 0,-1 9-180,27 26 0,-7 12 0,-45 10-90,-37-20 90,-11-7-180,-29-50 0,24-35 180,1-26-90,41-17 270,15 31-90,12 14-180,14 49 90,-15 26-90,-1 17 90,-28 16-90,-20-20 0,-9-3 0,-9-35-90,15-40 0,10-11-1080,26-16-449,6 29-270,16 21 900,2 22 809,-5 0 270,8-8 1169,-20-15-539,-9-11-180,-22-4-181,-32 10-269,-13 14 0,-20 26 0,14 24-90,15 2 0,24 7 0,33-29-90,5-16 90,18-27 90,-12-12-90,-6-1 0,-10 9 0,-4 20 0,0 15 0,11 5 0,6-1 0,5-20 0,0-17 0,-1-13 0,-6-1 0,-3 11 0,-1 24 90,-1 28-90,-2 28 270,-13 17 90,-16 5-180,-19-8 180,-10-21-91,-12-30-179,17-38-270,13-24-2338,29-15-1980,30 0-3327,21 10 6977,-15 17 0,-10 11 0,-35 15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="250">2406 113 10861,'9'-38'8095,"-2"10"-6296,-5-2 270,0 14 90,-2 30-360,-10 29-900,-3 37-539,-3 11-990,13-11-6296,18-25-1259,17-25 8185,-1-18 0,-7-10 0,-14-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1133">269 819 9332,'54'-17'9830,"-32"5"-4999,-29 5-4381,-46 9-270,-27 6-90,13 2 270,7-1 899,22 13-90,11 16-179,15 37-900,12-13 0,5 7-90,4 17 0,2 7 0,-3-18 0,2 2 0,0 1-155,1 4 1,0 0 0,0 1 154,0 0 0,-1 0 0,1 0 0,-1-3 0,-1 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,-2 0 0,0 1 0,-1-1 0,-1 1 0,-2 0 0,0-1 0,-1 0 0,-1 0 0,0-1 0,-2-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 0 0,1 0-24,-1-5 1,0 0 0,1 0 23,-1 0 0,0-1 0,1 0 0,-3 27 0,0-3 0,1-8 0,1 0 0,-1 10 0,1-3 0,2-22 0,0-3 0,0 1 0,2-3 0,2-12 0,3-3 0,10 18 459,10-5-3338,35-20-4333,28-32 2296,-24-13 1,1-5 4099,-12-2 0,-2-2 1,1-4-1,-4-1 1,7-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2100">2389 1197 7623,'-23'-18'6116,"0"-6"-4227,-6-6 90,10 6-630,18-1 0,36 4-359,37-8-586,-23 15 1,2 1 90,1 2 0,-1 1 674,26-2 810,-21 14-180,-28 35-1169,-11 20-630,-11 18 0,-3 12 0,2 4 0,0 4-185,0-15 0,0 3 1,0 2 184,2 3 0,1 1 0,-1 3 0,-2-16 0,-1 2 0,1 1 0,-2-2 0,1 17 0,-1-3 0,0 6 0,-1-7 0,-1 6 0,-1-1 0,1-5 0,-1 7 0,-1-5 0,0 0 0,1 4 0,-1 1 0,1-2 0,0-4 0,1-1 0,0-4-119,1 12 1,0-3 118,1 1 0,0-1 0,2 0 0,0-3 0,0-15 0,0-2 0,0 5 0,-1 0 0,-3-5 0,-4-5 0,-4-18 0,-5-4 0,-3 1 0,-11-4 180,-30-3 0,-13-10-1979,-4-10 0,-4-7-495,-16 0 1,-5-9-286,28-14 1,0-7-1,6-1-127,2-2 0,5-4 2706,-8-12 0,5-3 0,-2-21 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2583">959 1062 7533,'12'-53'9830,"-2"10"-8057,-2 27-334,-7 51-719,4 61-630,-2-45 0,3 1 0,5 10 0,6-6 90,24 2 1349,16-30 450,-2-39-450,-15-23-1080,-29-4-359,-33 14-5037,-18 18-899,1 18 359,28 7 5487,20-4 0,8-6 0,-3-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2717">1327 1304 11760,'21'-7'7916,"-2"1"-6387,-6 29-1709,-5 29-4497,3 45 4677,-8-42 0,0-1 0,1 18 0,0-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3517">979 2014 8252,'-5'-34'8186,"1"12"-5398,-3-4-809,3 57-810,3 48-899,5-17 0,4 4-135,5 4 0,5-2-90,4-10 0,6-8 135,37 7 269,-2-56 631,-15-39-720,-29-20-271,-36 1-1977,-27 16-5668,-7 22 4857,40 20 1890,32-1 2338,47 1 990,11-13 89,1 1-269,-3 10 449,-14 25-269,-24 30-900,-25 24-1349,-18 15-270,-6-5-1530,11-11-6205,27-24 7735,29-25 0,-20-17 0,5-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4000">1096 3049 10681,'-36'-49'7466,"10"15"-5667,-4 12-810,20 51-629,10 27-270,12-8 0,7 1-45,4-4 0,8-4 0,15-1 0,6-11 944,42-18-89,-2-27-271,-36-43-629,-55 10-2338,-26 6-7493,-40 29 9770,22 15 0,4 5 0,31-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4533">1527 3038 10051,'10'-10'5757,"0"-1"-4858,-1 4 451,1 6 719,0 4 539,-2 6-1798,-1 0-541,3-2 91,8-2-180,10 0-90,4 6-90,-9 22 0,-20 15 0,-9 0 0,-8-6 0,16-11 0,9-12 0,19 13 720,10 1 179,-9-5-269,-12 21-2069,-45-12-4948,-23 7 6387,-18-15 0,25-15 0,14-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4717">1420 3613 17427,'-10'8'-3058,"5"9"-540,10 22 3598,4-1 0,0-6 0,-4-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4933">1485 3977 7892,'-9'30'7466,"-8"5"-9535,-8 17 540,2 2-719,9-1 1438,13-7 3508,9-5-1348,-1-16-2340,-7 4-3597,-6-1 3739,-2-4 0,0-5 0,7-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5383">1062 4817 9961,'-33'-74'9830,"8"20"-5358,12 20-4022,8 31 449,5 35-449,8 52-405,2-25 0,4 4-135,4 6 0,5-1-180,3-10 0,4-7 1,34 10 538,-5-52 541,-19-38-270,-31-20-630,-34 1-2249,-25 17-3148,-1 19-1439,11 22 6926,36 5 0,1-1 0,17-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5683">1214 5061 11131,'39'-21'9830,"-11"7"-4999,12 13-3302,-14 24-539,11 23-630,-8 12-360,-4-4 0,-1-22 0,5-35 0,12-33 0,10-14 0,0 7 0,6 32 0,-18 37-2519,1 31-7312,-10 18 9410,-9-13 1,-7-22-1,-7-25 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:47:25.529"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">552 1199 9152,'12'-5'7645,"-16"-4"-6835,-24 1-360,-25-5-1,-24 1-89,-4 3-270,2 2 90,17 4 180,9 2-90,23 0 0,5 1 89,7 10-179,6 7 270,0 32 0,8 16-136,2-16 1,1 4 270,1 4 0,0 2-316,0 5 1,0 1 90,0 3 0,0 0-135,-1 2 0,1 1 89,-1 3 1,-1 0-135,0 4 0,0 1-45,0 3 0,-1-1-45,0 0 0,1 0 0,0 0 0,0 0 90,2 2 0,0 0-90,1 1-1,1 2 1,1 2 0,1 0-45,-1-11 0,1 1 90,-1 15 0,-2-1 45,-1-15 0,-1-1-135,0 5 0,-2 0 0,0 4 0,0-3-45,0-15 0,2-2 0,0 1 0,0-2 90,0-5 0,1-5 0,0 11 0,-1 2-180,1-35 90,1 3 90,1-16-90,17 17 0,8-12-270,16 7-2429,19-9-1079,-12-20 1,3-4 583,4-3 1,1-3 3193,7-5 0,-2-2 0,27-14 0,-26 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1332">2319 938 8792,'-27'5'7826,"8"0"-6927,11 1 180,37-4 91,33 0-541,38-1-269,-13 1 360,-1 0 629,-24 1-899,-28 0 89,1 13 1,-30 21 180,-1 19 89,-7 31-449,1-36 0,1 3 89,0 12 1,1 4-135,1 7 0,1 4-135,0 8 0,1 4-120,1-27 0,-1 0 0,1 2-60,1 2 0,0 2 0,-1 0 0,2 3 0,-1 1 0,1-1-78,-1-1 1,0 0 0,-1-1 77,0-3 0,-1-1 0,0-1 0,1 26 0,-2-2 0,-1-9 0,-1-3 0,-1-2 0,-1-3 0,-1-3 0,0-2 0,0 0 0,0-1 0,0-2 0,0-1 0,1-2 0,-1-1 116,0-4 0,0-2-116,-1-4 0,0 0 0,-8 43 0,-2-4 0,-3 0 0,0-1 0,1-3 0,3-8 0,3-10 0,2-15 0,3-3 0,1-8 0,1 2 0,1-7 0,0-9 0,1-7 0,0-7 0,-1 0 0,-17 1-1709,-23-3-4678,-37-13 2294,24-17 1,-1-9 4092,4-4 0,3-6 0,0-7 0,6-5 0,12 3 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166">972 224 15628,'-11'25'1349,"-9"23"-899,-3 13-180,-6 12 360,6-13 359,8-22-539,13-36 449,11-33 1,11-34 269,8-18-180,-1-4-179,2 6-270,-2 13-91,-1 18-359,-3 24 270,9 35-180,-3 17 0,23 39-180,-10-2-180,3 8-1259,-7 2-2609,-19-23 1,-6 11-361,-17-20 4408,-11-10 0,4-14 0,0-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2382">939 424 7263,'-11'-11'6746,"2"-7"-5667,21-3-989,11-5-1709,55-12-1979,1 7 2919,-30 13 1,-2 0 0,20-6 0,-19 6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2683">1662 45 7892,'0'-16'2046,"1"2"1,-1 5-1,1 4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4749">1391 380 10591,'-8'-36'6296,"16"-1"-4677,23 9-539,26 11-540,17 29-181,1 26-179,-17 22-180,-24 10 90,-29-4-90,-18-18 0,-19-24 0,6-38 0,3-33 0,23-26-90,16-7 90,13 13 0,10 26 90,5 31 0,1 28 0,-4 21 0,-12 4 0,-13 6 0,-18-13-90,-12-11 0,-3-27 0,4-26-90,14-19-630,17-4-1259,18 11-89,22 14 1168,17 18 450,10 12 1080,-5 7 1079,-16-1 180,-24-4-810,-27-15-629,-26-2-270,-19-5-90,-16 13-90,6 16 0,7 12 0,18 16 0,20 5 0,9-8 0,21-12 90,1-31-90,6-20 90,-13-10 360,-8-5-181,-11 14-179,-7 21 0,1 18-90,2 19 90,7-2-90,9-11 90,5-20-90,0-11 0,-1-11 0,-8 6 0,5 9 0,-4 12 90,16 15-90,-4 2 90,-1 0-90,-7-9 0,-9-6 0,0-1 90,8 12-90,-1 5 90,9 33 0,-12-4 450,-11 32 539,-24-29-449,-14-6-450,-18-39-450,15-34-1799,5-17-3418,35-29 1170,25 3 1798,18-6 1844,-10 33 1,2 1 2113,23-24 180,0 0 1709,-20 12-1799,-23 24 1889,-2 1-2788,-18 35-450,-5 6-90,-5 16 0,0-6 0,27-30-90,-3-7 270,20-25 359,-16 15 181,6 6-630,-4 27 0,11 23-180,-7 11 179,0 15-89,-16-9 0,-13-6 630,-21-2 539,-7-15-719,4-7-630,17-13-2429,45-22-2068,18-3-329,-2 1 1,1 2 3489,10-2 0,-5 5 0,-44 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5732">1116 1772 9152,'4'-25'7196,"-10"-7"-6207,-11 0-359,-19 6-360,-9 20-91,-2 22-179,9 21 90,17 14-90,20 4 360,17-11 450,25-21 179,0-30 990,9-23-720,-12-15-89,-9 1-721,-12 15-269,-4 9-90,-1 25-3058,6 17-2609,4 20-4254,5 13 9770,-9-17 0,-4-12 1,-10-20-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5915">1453 1863 9871,'3'-15'9830,"-2"0"-9765,2 15-3034,-3 30-6655,-1 22 9624,-1 1 0,-2-16 0,2-26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6632">1235 2481 13289,'-15'-4'5217,"-10"-3"-3867,-10 3-541,-17 8-359,-8 19-360,17 5 0,16 21-90,38-12 90,16 0-90,29-23 90,-5-24 90,0-13 1259,-15-13-180,-17 6-989,-6 5-270,-2 21-270,-3 16-1259,2 19-90,-2 4 1079,-3-7 270,1-8 180,9-13 0,10-5 450,24 4 360,-7 4 359,11 23 1,-16 21-811,-7 0-898,-1 9-3779,-4-28-5423,9-14 9410,-4-15 1,-8-8-1,-11 0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7149">1221 3343 10681,'-30'-31'7825,"-1"5"-6925,-6 15-540,-2 26-90,4 23-180,12 14-1,17-8-89,37-17 0,16-34 90,20-23 720,-10-14 809,-15 5 90,-18 15-989,-12 32-361,-10 25-1528,3 30-3868,3 11-2339,10-3 7376,1-21 0,-5-21 0,-9-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7499">1499 3524 10051,'32'-51'8276,"0"9"-7377,3 20-539,-6 27-180,-6 27-90,-8 9-90,1 12 0,5-16 0,4-1 90,5-9 899,-7-7-449,-9 4-360,-24 1-2069,-34 6-3058,-26 2 4947,-3-5 0,25-12 0,24-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7749">1329 3966 8342,'8'-12'2159,"1"8"-2159,-6 8 0,1 1 0,-5 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7882">1332 4244 9332,'-9'18'4137,"0"0"-10433,-2 6 6296,1-6 0,5-5 0,2-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8465">1166 4870 9332,'-96'-11'9830,"24"-12"-8417,119-3 386,-5-19 0,-15 10-1259,-2 6-180,0 33-3509,-6 21-988,6 18-5694,5 19 8787,-13-28 0,3 0 1,-16-28-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8815">1384 4935 8522,'18'-13'9445,"0"0"-6567,2-3-1799,-1 8 451,8 18-901,-5 21-539,-1 2-90,-4 12 0,-4-33 90,2-12 270,6-29 1529,8-17-720,-5 8-359,19 12-900,-12 46-2519,3 7-4137,-6 27 6746,-12-9 0,-6-15 0,-5-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9549">1263 4646 10141,'-19'-14'6566,"-6"5"-6206,-12 18 630,1 15-271,-2 22-359,14 11 0,9 7-270,11-1 0,15-8 0,9-16-90,25-22 90,-3-27 449,8-24 271,-14-19 539,-14-2 450,-10-2 1079,-8 14-1528,-2 10-1260,2 20-90,4 24 0,5 19-1889,8 9-4498,8-3-1708,5-11 8095,0-9 0,-15-10 0,-8-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:09.343"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 254 14729,'11'4'3328,"9"5"-1889,28 4-450,39-2-674,-28-5 0,7-3-46,3-3 1,8-3 0,0 0-60,-3-1 0,0 0 0,2-1-205,9-1 0,1 0 0,2 0 295,6-1 0,1 0 0,-2 1-317,-14 1 0,-1 0 0,0 0 77,6 0 0,0 0 0,2 2 0,3 0 0,2 1 0,-4 2-60,-14 0 0,-2 2 0,0 1 0,1 0 0,1 1 0,0 1 30,-3 2 0,-1 1 0,-4 1-30,5 0 0,-2 1 45,15 2 0,0 0-45,-12-4 0,-3 0 45,-8-1 0,-1 0 74,9 1 1,0-1-120,-7 0 0,-1-1 303,-6 0 0,1 0-258,8 1 0,-1-1 0,-5 1 0,-1-1 45,-4 1 0,0 0-1,11 1 1,0 0-45,-1 1 0,-2 0-45,-4-1 0,0 0 45,8 1 0,-1 0-135,28 2 180,-19-2 0,-20-3-90,-26-3-90,-9-1-179,-2-3-1,-4-5 0,-7-4 0,-5-12 270,-3 4 0,-5-11 0,0 6 0,-4-6 90,-3 2 0,-3 2 180,-9 4 629,-2 3-179,-7 1-360,6 4-270,6 3-1,32 12-89,26 8 0,36 13 0,7 1 0,-4 3 90,-26 6 0,-36 11-449,-36 16-2250,-30 11-3238,-9-2 5847,9-9 0,25-29 0,17-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2100">8700 906 11580,'-21'6'9830,"5"2"-7876,32 9-245,41-2-1754,2-5 0,9-2-1889,15-2 0,5-3-990,10 1 1,-1-2 2584,-17 0 1,-8-1-1,18 1 1,-53-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1867">9153 1251 10051,'-49'26'9830,"19"1"-2749,34 2-6632,68-6-944,-14-14 1,7-4-1980,9-1 1,2-2-541,-1-1 1,-3-1 3013,-16 1 0,-6-1 0,11 1 0,-32 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1383">5938 77 11490,'-13'1'8815,"29"5"-7375,54 3-811,-6-3 1,14 0-338,-1-4 0,11 0 1,5 0-1,0-1-659,3-1 0,2 0 1,2 0-1,4 0 382,-18-1 0,4 0 0,2 0 0,0 0 0,0 0 0,-2-1 39,10 1 0,0-1 0,-2 0 0,-1 0 0,-2 0 36,-7 0 0,-1 0 0,-1 1 0,-2-1 0,-1 0-45,12 1 0,-2-1 0,-2 1 0,-2 0-134,-11 0 1,-1 1 0,-3-1 0,-1 1 118,10 1 0,-2-1 0,1 1-142,11 2 1,1 0 0,-4 1 141,-19 0 0,-5 0 0,1 1-30,1 0 0,1 0 0,-5 0 90,13 2 0,-9-1 540,12 1 1212,-2-3-1482,-36-5 692,-6-3-962,-12-1 428,-7 0-518,-7-2 0,-6-1 0,-23-11 90,-10 1 630,-13-5-720,2 3 0,11 5 0,7 3 0,24 5 0,27 11 0,30 16 0,-2 7 0,-5 19-270,-50 9-2968,-23 0-4138,-43 12 7376,2-20 0,17-16 0,18-14 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:39.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 168 9062,'12'-9'6656,"-1"9"-4947,1 31-809,0 19-181,4 31-449,1 3-90,1-4 1799,-1-15-1799,-5-39 89,-7-24-89,-12-65-90,-8-36-135,8 36 0,1-2 45,3 1 0,3 2 0,16-32 0,19 41 0,12 39 0,4 32 90,-10 28 0,-27 17-90,-25 5 0,-13-10-180,-6-14 180,23-39 0,15-19 0,26-21 0,18-2-90,12 13 90,8 19 90,6 22-90,-5 21 90,-12 14-90,-21 9 0,-25-3 0,-23-10-90,-14-20 0,-7-28-269,9-30-91,15-25 90,19-9 180,14 4 0,9 14 180,-1 18 0,-5 21 0,-11 26 0,-12 25 90,-6 19-90,3 6 0,8-8 0,14-17 90,14-28-90,10-29 0,-4-30-90,-15-20 90,-28-4-360,-28 11-1618,-18 28-1081,4 25 1,16 31 1529,34 2 1529,29 3 1169,20-23 540,8-19-90,-6-16-359,-13-3-361,-12 1-809,-25 21 0,-13 23 0,-11 30 0,3 27-90,14 8 450,8-14 449,21-30 1,2-51-541,11-50-134,-27 15 0,-4-4 135,-2-3 0,-5 0 0,-6-39-181,-11 40 1,-13 35-90,11 44 90,9 14 0,20 6 270,37-15-180,8-21-90,11-6-90,13 10-2339,-18 30 360,-32-8 0,-3 9 1889,1 25 0,-5 6 0,-9-16 0,-2 1 0,2 13 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:09.357"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">443 88 9961,'-2'-29'7736,"-24"-2"-5757,-20 9-1799,-19 16 719,-20 45-629,28 19-180,10 16-720,58 21-269,43-33 629,26-9 630,-21-49 0,2-13 1259,28-20 0,-1-12-90,-39 11-1079,-20 24-1530,-11 30-4047,-8 30-4704,-10 40 8472,-3-26 1,-1-9-1,2-45 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="650">228 1113 4431,'-24'-8'9830,"26"-11"-5490,4 6-3081,38 0 1282,1 38-1822,-10 13 451,-16 34-720,-22 3 1142,-3-11-1592,-1-13-180,4-26 180,8-23 0,2-13 0,5-22-90,-2-12 90,-3-9 630,-3-4 269,-7 1-179,-8 7-360,-13 11-360,-13 22 0,-15 28 0,-11 28 0,-2 29 0,37-25 0,6 4 0,8 3 0,8 2-495,8 2 0,10-3-2114,10-3 1,9-6-271,9-10 1,6-9-360,8-8 0,1-9 2390,37-9 0,-30-7 0,-36 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916">687 1555 10771,'11'-8'9265,"3"-4"-5667,2-1-1080,9-2-1079,4 7-629,3 31-540,-16 33-270,-14 38 0,-8-42 0,-2 0-1709,-7 46-1260,13-25-4227,19-27 7196,17-22 0,-10-15 0,-1-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1733">327 3050 10411,'5'-78'9804,"-18"13"-9534,-26 29 1080,-23 39 179,4 44-720,19 29-539,43 12-180,49-15-135,-8-50 0,8-10 45,8-11 0,3-9 45,-3-7 0,-2-4-45,32-17 0,-34 17 0,-41 30 0,-12 22-90,-11 12 0,17 15-90,33-13-90,28 3 90,11-10 180,-10 0 0,-31 8 0,-34 12-1349,-44 10-1485,1-34 1,-6-4 2833,-4-4 0,0-4 0,-18 6 0,26-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916">382 3892 10501,'-11'6'2788,"7"3"-5216,5 5-1260,6-1 2625,3 3 0,-5-9 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2066">521 4583 8882,'-20'40'6746,"11"-20"-11513,-19 33 4767,20-32 0,-3 3 0,8-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166">459 4919 9781,'-12'23'449,"-5"14"1,7-17 0,-2 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2566">65 5086 9871,'-19'-12'9625,"2"16"-7736,-5 46-1439,15 25-271,9-7 1,6 4-135,6-6 0,6-2-135,4 1 0,5-5 0,34 18 180,1-55 1080,-10-44 179,-19-33-629,-28-9-1170,-33 14-3508,-24 23-5873,-13 27 8848,18 8 0,15 1 1,22-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3516">146 5082 9242,'-30'-33'8725,"2"9"-6926,-5 1-360,13 13-809,13 1 539,29 14-719,23 11-181,30 15-179,3 3 540,-4-5-90,-25-12-270,-17-8-180,-32-13 269,-11-8 361,-20-7-1,-13 2 1,-11 13 90,-10 18-810,-4 23 0,11 25 0,20 25 0,30-36 0,6 2 0,5 0 0,6-1-1889,19 36-4408,18-34 900,20-39-2518,17-33 7915,-20-6 0,-17 2 0,-36 16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3849">538 5460 8972,'35'-33'9830,"-7"15"0,-3 35-9791,-5 26-39,4 28 0,-4 3 0,-4-17 0,4-39 0,6-46 0,9-34 0,9-9 0,9 17 0,8 37 0,6 49 0,-12 35-4093,-30-6 0,-7 4 4093,-9-10 0,-4-2 0,3 32 0,-12-42 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8416">1622 564 6993,'4'-28'6027,"0"4"-3419,3-4-1798,8 37 539,-3 31-315,1 28 1,2 17-496,-2-3 1,0 9 0,-1 8-759,-2-16 0,0 6 1,0 4-1,0 3 1,-1 1 307,0-6 1,-1 2 0,0 2 0,0 2 0,-1 1 0,-1 0-167,-1-5 0,-1 2 0,0 1 0,-1 1 0,-1 0 0,0 0 0,-2-1-258,-1-2 1,0 0 0,-2 1 0,0-1 0,-2 0 0,0-1 0,-2 0-78,0-3 1,-2 0 0,-1 0 0,0 0 0,-2-2 0,-1-1 0,-1-2-279,-2 4 0,-1-1 1,-1-1-1,-2-2 1,-1-2-1,0-3 690,-3 3 0,-1-2 0,-1-3 0,-1-3 0,1-5 0,-8 14 0,1-8 0,-1-6 0,-7 4 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:16.689"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 73 10591,'-12'-52'6116,"18"32"-5306,16 53 0,7 31-571,-2-1 1,0 12 0,0 11-873,-5-5 1,0 12 0,1 8 0,-1 4 0,-1-1 0,-2-4 647,-2-8 0,-2-2 0,0 0 0,-1 1 0,-1 2 0,0 2-15,0-2 0,-1 3 0,0 2 0,0 1 0,-2-1 0,-2-1 0,-1-3-225,-3 4 0,-3-1 0,0-1 1,-3-2-1,-1-2 0,0-3-304,-2-1 0,-2-3 1,-1-1-1,-1-2 0,0 2 61,-1 2 0,-1 1 1,-1 0-1,-1-1 1,-1-3-1085,-5 15 0,-2-1 1,0-5-1,1-9 1552,-2 14 0,1-8 0,-2 11 0,4-14 0,11-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="484">1144 479 9332,'9'-65'6566,"-3"10"-4767,-21 99-1170,4 16 1,-1 17-226,-1 0 1,-1 13 0,-2 8 0,0 4-727,2-13 1,-1 5 0,0 3 0,0 3 0,0-1 0,0-1 411,1-1 0,0-1 0,1 1 0,-1 0 0,1 1 0,1 3-65,0-7 1,0 2 0,-1 2 0,2 0-1,1 0 1,1-1 0,3-1-495,3-6 1,2 1-1,1 0 1,2-1 0,0-2-1,2-1 1,-1-2-180,2 17 0,0-5 1,2 0-1,2-1 1,3 4-992,2-5 1,3 5-1,2 1 1,0-2 0,1-7-1,-1-11 1530,2 8 1,1-11-1,2-1 1,6 7 0,2-1-1,-2-14 1,-7-24 0,0-1-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5963,6 +10422,345 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:04.824"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1067 164 8882,'-14'-63'9534,"4"11"-7285,4 8-990,8 40 1260,-5 68-1665,-1-1 1,0 8-540,-1 15 0,2 2-135,4 3-1,6-4-134,7-20 0,10-11 45,40 3-90,11-60 180,-10-41-90,-23-19-90,-35 7-450,-33 24-2608,-20 33-3058,-2 26 2698,20 9 2068,32-10 1440,29-18 1889,10-15 1169,5-5-1259,-13 5-1169,-3 15-1440,-7 21-3777,-3 23 4497,-6 23 0,-6-33 0,-4-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="649">1063 1392 7892,'-1'-17'9445,"-1"-1"-6387,-14 0-2428,-11 16 449,-12 9 451,-12 41-631,10 30-719,23-29 0,5 4-90,11 10 0,8-2-90,22 24 90,34-21 0,13-64 359,-13-24 451,-6-34-450,-49-6-450,-23 17-1080,-38 21-5126,-12 42 1978,15 5 4228,15 15 0,29-24 0,7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916">1201 1691 9871,'37'-26'9830,"-5"5"-7427,-5 3-1143,-5 12 808,-5 30-538,-3 18-811,3 24-359,2 3-720,8-8-2248,10-14-2699,7-16-2429,7-14 6888,-10-8 0,-12-5 0,-18-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1633">1016 3004 11131,'2'-15'6656,"4"-11"-3688,-1-6-179,-4-8-811,-12 6-808,-17 24 179,-11 40-719,5 39-630,24-20 0,7 3 0,8 2 0,6-1 0,24 37 0,14-32 0,5-40 0,4-38 0,-7-26 0,-18-17 0,-27 2 0,-33 15 0,-26 29-4678,-8 32-3417,8 23 8095,27 3 0,15-16 0,15-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2000">1371 3055 9691,'17'-12'9805,"1"0"-7646,3 0-1350,4 13 1,-13 29-540,0 28-270,-10 19 0,5 0-90,13-20 90,18-18 90,11-12 719,1-2 1890,-9 4-1800,-29 11-1439,-48 12-4767,-41 0 854,28-30 1,-2-6 4452,-34 4 0,37-18 0,30-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2699">1190 4236 7419,'5'-15'3777,"0"1"-3650,5 19-127,-2 26 0,1-10 0,-4 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2816">1253 4696 10231,'-3'44'2069,"2"3"-5487,5-19 3418,0-1 0,-1-9 0,-1-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2933">1278 5083 8162,'-14'35'-240,"9"-21"0,-5 10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3649">1041 5354 8792,'-12'-26'9355,"3"5"-7736,-2 10-990,6 38 181,6 20-450,13 33-180,19-5-180,21-21 179,16-36 1171,0-36-1,-16-25-1079,-30-5-900,-34 15-2608,-29 24-1080,-7 23-449,10 11 1799,27-1 4497,42-22 1259,17-12 541,23-14-541,-5 6-719,-2 15-90,-9 19-990,-13 17-629,-14 8-450,-13-8 0,4-17 180,3-35 90,16-14 539,10-11-89,6 19-540,-2 34-2788,-7 30-3149,-10 23 5847,-6 2 0,-15-26 0,-4-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11316">490 590 11760,'-23'-23'3598,"-6"0"-3418,-9-2 720,-8 3-91,-8 11-269,-12 29-226,28 13 1,3 13 360,-4 27 0,7 15-226,10-3 1,3 9 0,4 5-628,5-9 1,1 4 0,3 4 0,2 4 252,1-18 0,2 4 0,1 2 0,1 3 0,0 0 0,1 1-439,0-6 1,1 1 0,1 1 0,0 1 0,0 1-1,1 0 1,0 0 80,1 4 0,0 1 1,1 1-1,0 0 1,0 0-1,1-1 0,1-1-206,-1-4 1,1 0 0,0 0 0,0-1 0,1-1-1,0-1 1,1-1-1041,2 6 0,1 1 0,0-1 0,0-3 0,1-4 0,-2-5 1529,2 3 0,-1-5 0,0-4 0,2-2 0,5 16 0,1-4 0,-2-13 0,13 21 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:58.891"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1607 461 8882,'1'-17'6206,"-6"-14"-3057,-5 2-2430,-21-15 91,-10 26-361,-12 14 91,-15 47-360,28 14-180,9 15 90,55-7 0,25-37-90,21-20 674,-23-30 1,-4-12 1124,18-32-855,-30 21 1,-5-1 674,-5-18-719,-17 14-900,-10 48 0,6 19 0,0 33-1170,18 33-1528,1-13-46,-5-22 1,1 2-5352,13 34 8095,-6-20 0,-5-19 0,-11-31 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="966">2010 700 11760,'10'1'7466,"4"26"-8365,12 34-2879,2 32 3778,-15-34 0,-1-3 0,3 9 0,-7-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1766">1738 2265 10771,'-18'-40'6566,"-10"-10"-4407,-14-7-900,-10 6-719,-3 26-360,7 38-90,13 34 0,22 23-90,26 2-90,24-14 180,16-30 0,7-40 89,-5-39 901,-14-18-1,-14-2-809,-13 26-90,0 19-90,0 34-1619,8 21-1529,3 23 269,1 5 1980,0-13 719,5-27 809,4-27 541,8-17 898,4 0-629,-2 21 810,-10 28-1170,-14 21-449,-11 45-1619,-4-5-1530,4 6-3688,20-15-3507,7-29 8776,-2-12 0,-11-18 0,-19-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">1630 3386 9512,'-11'-22'7195,"-18"-9"-5935,-16 6-361,-15 13 91,-15 44-541,16 38-269,20 5-90,40 10-90,55-47 0,11-24 0,23-47 270,-24-34 809,-17 2 1260,-18 0-2249,-26 50-90,-4 20-719,-6 23-3329,4 30-1529,12 7 5577,4 13 0,-2-29 0,-3-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3199">1922 3642 11400,'-1'-15'8006,"5"-8"-7376,10 1-1,13 1-359,13 18-180,-3 20 0,-7 20-180,-17 4 0,-10-7 90,1-10-90,12-13 180,8-1 0,9 2 360,-1 5-180,-15 10-450,-26 7-2969,-34 8-3867,-27-6 7016,0-10 0,22-15 0,27-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3849">1921 4278 9332,'13'-42'7196,"2"3"-7466,-7 30-2968,2 26 3238,-7 41 0,-3 0 0,-3 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3966">1972 4896 8792,'2'32'-1619,"0"0"1619,-1 3 0,0-15 0,-2-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4082">1996 5277 10321,'-3'15'2339,"-4"8"-2339,-7 17 0,7-18 0,-5 9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4566">1778 5858 12570,'-28'-48'7106,"-14"6"-6567,-25 36 271,-3 23-316,21 21 1,6 9-225,-3 35-270,28-19 0,14 1-539,39 17-1,28-22 360,20-53 180,-6-54 450,-16-26 1349,-18-6 270,-18 20-1890,-10 34-179,-6 28-2698,0 38-3059,3 28 5757,6 20 0,-7-32 0,1-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4899">2031 6292 4061,'18'-26'9830,"2"4"-4675,7-1-4435,-4 32 467,-9 30-1546,-5 18 483,-5-10-124,10-28 1386,5-42-666,18-30 899,12-17-630,8 7-719,7 32-3058,-6 51-2699,-11 46 5487,-29-19 0,-4 2 0,1 13 0,-7-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15732">3029 92 12930,'-31'-15'6386,"8"2"-5037,16-5-359,16 0-451,5 0 990,19 8-719,0 25-450,13 20-180,-14 16 0,-3 11-91,-2 8 1,-4 6-60,-4-16 0,-1 4 0,-1 5-257,-4 4 1,-1 6-1,-1 3 1,0-1 248,0-2 1,-1-1-1,-1 2 1,1 1-23,2 12 0,-1 2 0,0 2 0,1 1 17,-1-13 1,0 3 0,0 0 0,0 0 0,0-4-18,0 6 0,1-3 0,-1 0 0,0 1 22,0 5 1,1 0 0,-1 1-1,0 1-22,-3-14 0,1 0 0,-1 1 0,-1-1 0,0-3 0,-1 3 0,0-3 0,-1-1 0,0 2 0,0 5 0,1 2 0,-1-1 0,-2 1-23,-2-1 1,-1 2 0,-1-3-1,-1-4 23,0 0 0,-2-5 0,0 4 22,-1-4 1,-1 4 0,-1 0-1,-1-3-290,-4 11 1,0-3 0,-2-3 237,2-8 0,-1-2 0,-1 1 24,-3 4 0,-1 2 1,-2-4 5,-11 20 0,-2-5 0,4-11 0,-2-3 45,-7 8 0,-1-4-45,6-16 0,0-4 90,5-8 0,1 0 594,-3 4 0,0-1-460,3-10 1,0-3 563,-27 30-1193,17-35 1,-3-3-4523,-45 16 789,12-12 4138,-1-4 0,48-20 0,9-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16432">435 542 8612,'17'-31'8275,"-3"-2"-6116,-7 6-1799,-14 2 90,-20 33-1,-32 56-299,28-12 0,0 12 0,0 6-290,4-1 0,0 5 0,1 5 0,2 2 355,1 0 1,2 2 0,0 4 0,2 2 0,2 1-309,3-9 1,1 2-1,1 1 1,1 2-1,2 1 1,2 3 181,1 0 1,1 3 0,2 1 0,2 2 0,1 1 0,1 0 0,1-1-294,2 0 1,1 0-1,2 1 1,1-1-1,1 1 1,2 1-1,0 0 147,1-7 1,0 2 0,1 0 0,1 0 0,2 1 0,0-2 0,2 0 0,2-2-420,2 7 1,3-1-1,0-1 1,3 0-1,0-2 1,3-1 0,1-2-207,0-5 1,2-1 0,1-2 0,2 0 0,1-3 0,2 0 0,0-2 681,7 6 0,3-1 0,1-1 0,1-3 0,-1-3 0,-2-5 0,8 11 0,-2-5 0,0-5 0,1-4 0,11 0 0,1 0 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:40.575"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6347 1915 11131,'23'-23'7016,"-23"1"-5847,-47-10-899,-5 18 0,-12 7-180,-1 3 0,-7 4 0,-4 3-297,5 3 0,-4 2 0,-2 3 1,0 2 363,-9 5 0,-2 2 1,-1 3-1,3 3 68,0 3 0,0 3 0,2 2 0,6 3 302,-7 7 0,5 4 1,12 4-319,17-2 1,8 5 0,17 1-75,23 25 0,28-1-165,12-21 0,15-3 0,7-4-262,15 2 0,10-6 0,4-7 269,-14-13 1,3-4-1,3-6 1,1-6 22,4-6 0,2-7 0,0-6 0,-3-6 0,-4-8 0,-1-5 0,-3-6 0,-3-3 0,-3-3 0,-3-4 0,-2-3 0,-7-1 0,7-13 0,-8-2 0,-9-1 0,0-18 0,-22 0 401,-32 11 0,-24 6-401,-36 8 0,-20 12-450,19 18 1,-4 5-1,-4 7-1094,-11 5 1,-4 7 0,4 8-1734,13 11 0,3 6 0,6 2 3086,-5 3 1,10 4-1,17 7 1,12 1 0,12 0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916">6225 2974 12210,'17'-22'7106,"-18"6"-6836,-23 14 0,-11 25-270,10 28 0,33 25-135,11-31 0,8 1-90,5 4 0,3-2 135,-1-4 0,-1-2 90,13 23 0,-33-13 0,-36-23 90,-29-7-180,-14-23-90,12-23-449,34-22 359,48-20 180,34-2 135,-20 36 0,3 4 584,36-9 181,-13 27-270,-17 22-360,-14 19-90,-8 8-1,0-4 1,4-15 0,4-21 270,2-20 180,-7-8 449,-2 2-449,-3 20-360,6 22 0,1 13-90,5 5-90,-1-15 0,5-20 0,0-16-90,-3-6 90,-8 8 0,-3 11 0,-6 10 0,8 7 0,0 9-810,3 10-2248,0 5-2519,-7-2 5577,-2-6 0,-14-16 0,-2-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13082">2643 4294 9781,'-14'13'6657,"5"26"-4948,27 34-1215,0-26 1,12 3-165,15-2 0,11 1 0,5-4-241,0-7 1,3-5 0,4-2-162,9 4 0,3-2 1,5-8 93,-12-12 1,4-5-1,0-5 1,-4-3 7,5-4 0,-3-5 0,0-4-30,8-2 0,-1-3 0,-7-12 0,-15-12 0,-6-11 0,-11-1 135,-3-16 0,-14-9-46,-12-2 1,-8-9 0,-9 2 60,-11 7 0,-9 1 0,-4 2-120,-2 1 0,-4 3 0,-9 6-30,-12 1 0,-9 6 0,-10 15 0,2 26 0,-9 12 0,-2 7 0,1 2-212,5 1 0,1 3 0,-1 5 1,-2 6 211,2 4 0,-5 6 0,0 4 0,5 4 0,9 4 60,-12 23 0,11 7 0,9 3-206,8-7 1,8 3 0,18 3-665,25 11 1,18 5 0,16-7-1170,20-9 0,16-6 0,2-3 1979,0-1 0,2-2 0,0-6 0,-5-10 0,1-4 0,-5-6 0,-3-10 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-13616">4110 350 9961,'-12'-5'8096,"15"3"-7826,7 1-1,37 4-179,23 0-90,-21-1 0,3 0 0,1-1 0,0 0 90,42-1 90,-25-1-90,-29-3 0,-20-5 450,-23-8 359,-18-6-179,-7 1-450,-2 3-90,6 7-1,11 6-179,12 6 0,20 13 0,11 8 90,6 8 0,-8 3-1529,-26 10-3058,-22 12 4497,-21 14 0,9-29 0,7-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10950">4047 908 18866,'54'-3'1080,"36"-3"-1125,-29 4 0,2 0-180,4-2 0,-2 1 135,-10 0 0,-4 1 0,11-1 90,-37-3 180,-27 1 450,-30-11 89,4 3 181,-13-6 89,14 4-809,6 4-180,13 8 0,22 13 0,12 7 0,25 16 90,-13-4-90,-7 0-2429,-41 12-2698,-15-12 5127,-14 9 0,17-21 0,11-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9083">4012 1428 8972,'-14'2'9830,"32"-7"-7337,6 2-2268,22-3 0,11 0-225,1 2 0,3 0-495,12 0 0,1 0 90,-8 1 1,-4 0 134,19-1 180,-42-6 180,-45-6 449,-30-7 271,-22 1-90,5 4-1,7 5-269,21 5-360,31 13-90,23 8-90,26 18 180,-3 6-90,-20 6-1439,-34 4-2249,-28 0-2968,-21-2 6656,7-12 0,16-13 0,17-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8766">481 6 9871,'-5'5'6926,"-12"4"-6476,-28 11 90,-17-4 89,-11-8 271,0-6-630,12-5-180,22-1 0,13 0 180,11 3 359,4 13 1,3 24 269,4 46-314,3-20 0,1 6-226,0 20 1,0 6-180,-1-24 0,1 2 0,-1 1-201,0 4 0,-1 2 0,0 0 111,-1 0 0,0 0 0,-1 0-60,0-5 0,0 0 0,0-2 15,-2 26 0,2-4-45,2-14 0,3-4 0,2-15 0,5-3-180,21 32-1439,19-26-2159,26-21 1439,-23-30 1,6-7 2338,19-6 0,1-5 0,-20 0 0,-1-2 0,6-3 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9483">1715 29 10861,'-10'-14'5577,"20"4"-4858,22 6 91,16 7 449,-2 7-270,-13 20 181,-17 35-721,-12-7 1,-3 9-225,1 25 0,0 8-165,1-14 0,1 6 0,1-1-189,0 3 0,1 0 1,0 1 158,-1 4 0,1 0 0,-2-2 29,-2-14 1,0-2 0,-3-3-30,-2-9 0,-2-1 0,-2-4-75,-8 16 0,-6-8-630,-6-14 1,-7-8-1080,-3-12 0,-4-7-4902,-41 0 6656,20-28 0,26-8 0,25-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10083">2706 201 10861,'-15'-31'4587,"-3"4"-4317,-22 2 450,-6 12-271,-12 7 451,-3 9-450,12 2-1,6 1 541,13 23-91,18 26-269,9 36-91,8-7 1,2 7-90,-1 2 0,-1 2-375,-1-21 1,0 2-1,-2 3 224,-2 9 1,-2 4 0,-2-4-239,0-11 1,-1-4 0,0 1 28,-2 4 0,0 0 0,1-3-45,-2 24 0,4-7-135,5-28 0,4-5-450,2-3 1,10-6-1980,19-9 1,10-8-1317,42 1 3835,-21-21 0,-1-5 0,19-9 0,-5-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10899">3815 298 10681,'-15'-14'5217,"9"-1"-5037,28 5 90,24-2-180,23 2 719,2 0 900,-12 2-450,-22 2-899,-16 9 90,-16 14 0,-4 11 539,0 55-719,2-21 0,0 8-180,0-8 0,-1 6 0,1 2-218,-1 10 0,0 2 1,0 1 157,-1 2 0,1 1 0,-1-1 0,-1-3 0,1-1 0,0-2-11,-1-9 1,1 0 0,-1-4 160,-1 20 0,-4-6-135,-4-13 0,-8-5-810,-8-9 0,-10-5-1574,-10-8 1,-6-6-2578,-5-6 1,0-7 3969,-28 3 0,32-16 1,42-8-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:48:12.859"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">923 1081 10051,'34'-75'9355,"-15"-7"-8546,-17 31 1,-9 1-226,-11 1 1,-9 4-270,-7 6 0,-8 8-135,-8 10 0,-4 11-45,0 15 0,2 12 89,7 10 1,9 9-45,10 9 0,13 4-45,17 3 0,14-3-90,10-7 0,9-7 90,7-10 0,4-11 584,3-16 1,-1-12-1,-5-12 1,-5-8-270,-5-6 0,-6-4-450,9-39 0,-18 20 0,-10 68 0,0 47 0,-4-4 0,2 5 0,8 17 0,7-1 0,3-19 0,4-5 0,3 1 0,6-13-90,58-34 180,-26-42-90,0-21 0,-29-4 0,-20 23 0,-8 40 0,-9 30-1709,-3 32-7376,6 18-746,7-26 9612,2-6 1,-3-28 0,-9-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="400">2025 616 8792,'-5'-77'9830,"2"22"-3559,-3 10-4832,-3 55-630,2 27-539,2 13 0,1 8-180,5 10 0,4 1-90,0-4 0,4-3 45,6-3 0,8-10 585,31-17-540,-7-26-90,-3-43 0,-41-10 0,-32 0 0,-34 24-5577,-9 27-4228,20 16 9805,37 3 0,17-10 0,13-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="567">2292 805 11311,'23'-26'9830,"-6"9"-3380,4 7-6270,-10 39-4228,0 39 315,-7-13 1,-1 4 3732,-3 4 0,0-1 0,0-10 0,-1-3 0,-2 30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1467">1033 2150 8252,'17'-52'8186,"-3"-5"-6028,-8-5-808,-21 13-361,-23 31-539,-16 43-90,4 42-91,25 26-224,26-42 0,9-2-45,35 30 450,21-36 1169,11-50-270,-8-53-315,-40 18 1,-5-3 45,9-45-1080,-19 23 0,-12 62 0,-3 37-1080,1 49-1888,10 5 1349,18-14 989,22-33 540,20-34 1080,4-20 1168,-7-8-898,-24 11 89,-24 23-719,-24 21-630,-10 25 0,-1 11 0,20-2-1170,34-15-5036,42-25 2968,-26-22 0,3-7 3238,-3-5 0,-1-2 0,31-13 0,-32 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2067">2199 2003 9871,'-20'-71'9830,"-1"8"-5897,-2 13-2224,-2 36-450,12 48-720,8 53-494,10-26 0,5 2-225,4 3 1,5-2 89,3-8 0,4-8 90,32 7 539,0-48 181,-12-31 0,-18-34-720,-36 6 0,-20 0-3328,-35 24-450,23 21 1259,11 17 720,64-2 2968,23-2 810,15-10 2159,-9-6-1260,-16 12-1618,-13 11-1260,-14 40 0,-23 16 0,-6 14 0,1 6-3598,18-34-2159,15-8 5757,20-30 0,-21-12 0,2-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2484">1704 2822 8702,'13'-10'9830,"4"-2"-8326,-4 1-2764,0 8-1888,-5 22-5307,1 24 7607,-4-4 0,1-4 0,-5-25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2600">1836 3214 11580,'-5'31'-1349,"1"-1"1349,1 3 0,0-16 0,4 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2717">1888 3561 10411,'-22'31'180,"5"-5"-180,-4 6 0,12-17 0,6-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3833">1449 4657 8612,'-1'-39'9830,"-20"-12"-7247,-23-19-2223,-30 15 449,-20 38-179,2 53-270,28 34-270,49 24 0,56-18 0,38-33 314,-30-42 1,1-13 449,-2-14 1,-3-10 134,-5-5 1,-5-4-630,-7 1 0,-5 2-360,3-13 0,-10 42 0,-7 41-1530,6 27-4496,6 13 2788,9-9 2068,10-24 2250,6-31 1438,-2-31 1440,-7-16-1349,-11-2-1620,-9 14-359,0 25-450,-5 29-180,4 22-450,-2 3 180,9-9 90,13-39 540,6-21 180,8-23-540,-10 5 0,-4 12 0,-2 30-1170,-1 18-6205,7 22-2456,1 2 8202,-11-14 1,-6-11-1,-18-17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4600">2554 4422 9152,'8'-65'9830,"-1"-2"-3559,0-11-5282,-2 12 90,-2 23 271,-2 12-1350,-6 54 0,1 16 0,2 14 0,3 8 0,2-7 0,4 0 0,1 5 0,5-3 0,31 25 0,7-57 0,9-29 0,1-60 0,-28-6 0,-17-8 0,-51 19 0,-16 37-3508,-11 18-4228,25 41 3958,41-4 3328,22-1 3239,30-31 629,-10-17-630,-1-6 271,-8 6-2340,-15 13 1,5 19-360,-16 27-360,-2-6 89,-5 17-89,10-45 180,6-6 720,19-26-450,-1-1-450,1 9-1709,-9 18-4768,-7 16-1438,-8 9 7915,-6-3 0,-3-10 0,-4-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5667">416 297 8972,'12'-19'8635,"-12"-5"-6926,-21-5-1619,-34 5 180,-24 7 629,-1 6-179,13 4-450,27 1 1079,10 10 270,19 35 180,0 56-1440,8-34 1,0 8 0,0 5-203,-1-3 1,1 5-1,0 2 1,0 2-222,0 9 0,0 3 0,1 1 1,0 0 63,1 4 0,1 0 0,0 1 0,2-1-263,1-3 0,1 0 1,1-1-1,-1 1 263,0 1 0,0 0 0,0 0 0,0 1 0,-2 1 0,0 2 0,-1 0 0,0-3 0,-1-4 0,-1-1 0,0-2 0,0 0-109,0-3 1,0 0-1,0-2 1,0-3 108,1 14 0,0-4 0,1-1 0,0-3 0,-1-1 0,0-2-70,0-3 0,0-1 0,-1-2 70,0-8 0,0-3 0,0-1 362,0 19 1,2-4-363,2-16 0,3-5 530,4-7 0,5-4-530,5-2 0,6-2 261,9-2 0,8-5-3274,19-1 0,10-9-136,19-4 1,10-10 3049,-30-11 1,7-3 0,0-2 0,-5 0 0,3-2 0,-5-1-1,3-1 1,10-5 0,0 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6683">2987 188 8612,'-22'-29'6566,"25"-7"-5486,45-2-271,29 2-179,13 8 539,-12 12-359,-22 12-1,-16 17 451,-14 34-361,-19 2 1,-4 9-136,-4 27 1,-1 11-346,0-8 1,0 8 0,1 3-454,2-18 1,0 2 0,1 2 0,1 1 257,1 9 1,2 3 0,0 0 0,0 1-135,1 0 0,1 0 0,-1 1 0,1-1-68,-2 0 1,1 0-1,-1 0 1,-1-1-23,0-1 0,-1 0 0,0-1 0,0 0 0,-1-6 0,-1-1 0,1-1 0,0-1-167,-1-4 1,1-1 0,0-2 0,0 0 166,0-3 0,-1-1 0,1-1 0,-1-1 0,-1 22 0,-1-1 0,-1-1-125,-1-3 0,-2-1 0,-1-2 125,-1-8 0,-2-2 0,1-2 0,-5 22 0,0-6 0,2-17 0,0-6 497,2-14 1,1-3-498,-2 32 714,4-20-714,3-6 454,-1-15-454,-17-1 0,-54-13-1440,14-17 1,-12-3 0,-6-1-550,3-1 1,-6-2-1,-2 0 1,-2 0 1988,-12 0 0,-3-1 0,1-1 0,5 0 0,-5 1 0,5-1 0,6 0 0,-9-4 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:00.288"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">149 632 10591,'18'-47'8905,"-12"18"-8186,-12 28 361,-30 50-810,12-5 0,0 7-136,-2 8 1,3 2-90,3 4 0,7-3-135,13 26 90,16-42 90,33-58-90,-2-53 225,-12 14 0,-2-4 135,-5-1 0,-3 3 809,15-28-989,-17 49 0,-9 59-1260,-10 34-3417,-1 29-2789,-3-14 7286,1-19 0,0-31 0,-1-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="349">455 831 10411,'16'-64'9830,"-4"19"-6977,11 26-1324,2 36-989,9 17-181,-3 29-359,-15 12 0,-9-8-179,-12-6-181,-10-40 180,6-34-180,17-46-719,20-16-1080,14-5-2968,15 13 5127,-8 25 0,-15 13 0,-10 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="699">1038 329 11760,'-18'-28'9175,"9"5"-7736,18 3-90,21 12-449,14 18 89,-9 31-764,-27 6 0,-9 7-135,-4-3 0,-5 2-45,-8 20 0,-4 1 0,5-20 0,1-3-765,-9 40-3777,18-25-2069,39-33-900,13-14 6618,8-13 0,-19-9 0,-21 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="866">1599 964 9512,'20'17'9830,"-10"-6"-6438,-3 16-3302,-19 8-2519,-12 13-2968,-7 13 5397,0-7 0,14-23 0,9-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1633">1997 675 10411,'9'-91'8995,"-23"15"-7916,-30 28-719,-21 40-360,7 36-1169,25 24 179,32 1 810,28-15 990,14-25 899,7-29 989,-3-18-269,-8-4-900,-4 14-989,-5 29-1080,-4 28-3148,-3 29-1169,-6 14 1889,-1 0 1619,0-19 1708,7-25 811,9-39 719,5-20 89,8-18-358,2 3-361,-6 11-989,-7 16-90,-18 26-540,-13 13-1169,-6 12 449,6 1 541,18-2 629,11-3 1079,6 3 180,-10 1-629,-15 4-630,-22 1-2969,-24-6-2428,-15-17 5307,4-25 0,15-1 0,18-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1849">2627 49 10501,'46'-38'9830,"12"28"-6168,23 54-2987,-40 4 0,-6 11-1035,-4 15 0,-8 7-1619,-11 15 0,-12 2-675,-11-5 1,-8-2 2653,-4-10 0,-3-7 0,3-19 0,0-7 0,-18 12 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:59.104"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 309 11670,'2'-26'8725,"-8"19"-7915,-5 25-270,-12 37-361,2 9 91,-4 22-180,12-37-90,3-23 90,18-105 180,0 25 0,1-4 269,3-16 1,1 0 224,1 4 1,0 7 495,1-2-901,7 30 1,-4 65-809,10 39-1036,-11-23 1,0 4-1305,4 7 1,0-2 360,12 25 359,-5-14 2069,-28-49 1169,-17-24 810,-17-24 450,-7-23-1350,17 3-89,32-12-181,71 28-539,15 22-135,-25 23 0,-3 12-45,-16 14 0,-7 7 0,18 36 90,-36 13 0,-33-45-91,-21-20-178,3-42-1710,1-32-1979,19-20-1169,25-7 4947,16 9 0,4 18 0,1 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121">999 30 8072,'-17'-16'0,"4"3"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="417">933 27 17427,'-2'37'9085,"-13"30"-8501,10-4 1,1 5-315,-7 2 0,-1-1-720,3-4 0,0-4-3597,-2 31-1260,8-21-2249,8-31 7556,3-11 0,-1-17 0,-2-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="650">1139 839 19136,'4'24'4498,"-1"2"-3329,-11 10-3508,-15 26-3867,-19 21 6206,17-37 0,-1-3 0,-10 14 0,12-25 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:53.871"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">511 111 8972,'-51'-44'8635,"-14"7"-6926,-25 9-1170,37 26 1,0 10-225,3 7 0,4 7-180,3 7 0,9 6 45,8 40-90,71 2-90,3-40 0,10-2 0,9 0 0,2-1 0,1 3 0,-5 3 135,-16 2 0,-9 6 449,-14 3 1,-12 4 89,-18 6 1,-15-1-405,-16-2 0,-11-5-225,-2-7 0,-6-8-1664,-15-12 0,0-16-765,19-21 0,5-13-899,4-12 0,8-8 3283,6-50 0,24 28 0,8 33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550">990 485 8792,'-7'-21'9830,"1"6"-7067,-2 7-1504,4 36 180,3 36-989,5 22-270,4-33 0,4 1 0,27 35-180,6-28 0,29-51 90,-16-62-90,-27 14 0,-4-6 90,-5-9 0,-7-3 719,-2-43-629,-8 27-1259,-16 16-5218,-6 58 3149,3 12 3148,8 33 0,7-22 0,6 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1183">1530 482 13559,'14'-9'6656,"-4"3"-4317,12 49-1439,-8 5-361,7 45-269,-10-1-90,-5 2-180,-5-22 0,-8-49 0,-2-45 0,-1-24 0,0-13 135,3-12 0,1-3 45,-1 5 0,2 1 539,2 0 1,5 9 359,16 19-539,6 33-90,21 65-360,-2 30-90,-21-37 0,-1 0 0,14 33 0,-4-54 0,3-64 0,-10-11 0,-1-8 0,4-9 0,2-2 0,0 2 0,2 5 0,31-15 0,-4 58 0,-4 69 0,-29-3 0,-5 8-1575,-1 15 1,-5 4-2069,-2 1 1,-3 0 3642,-2-6 0,-1-6 0,0 8 0,-2-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1667">2577 618 10591,'8'-41'9830,"-2"11"-6438,10 27-2402,3 49-810,-4 1 0,0 7-46,0 9 1,-1 2-90,-1 0 0,-2-4 45,5 24-90,-16-51 0,-14-83-90,0-9 0,1-11 45,0-23 1,3-7 14,6 30 0,2-2 0,3 3 30,6-22 0,9 7 45,4 23 0,9 11 134,38 5 271,8 61 0,-10 50-315,-41-19 0,-8 6-180,-13 6 0,-10 0-1080,-12-2 1,-8-5-1665,-7-8 1,-5-7-7043,-44 6 9388,28-31 0,21-16 0,27 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2400">3208 842 10051,'-59'-28'9805,"14"3"-8456,14-10-270,50 7-539,40 5-270,38 24-90,-7 23-90,-13 37 0,-52-2-90,-25 1 0,-46-31-180,-2-47 90,1-40 0,29-29 90,28-2 360,16 26-1,18 37 91,-3 45-270,5 25-90,5 40-90,-3-13-90,16-3 180,6-49 450,8-48 1259,-12-40-1305,-41 23 1,-9-3-225,-16-42-540,-55 9-4587,-33 38 0,3 23 4857,8 42 0,51-7 0,11 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3233">4253 718 11400,'-9'-33'9715,"-14"6"-8366,-19 0-539,-37 37-450,3 41-316,34-15 1,5 6-135,7 14 1,12 3-631,14 24-449,41-9 899,46-83 450,1-43 224,-32-12 1,-7-13 269,-12-6 1,-7-6 539,-1-1 1,-5 2-91,-5 13 1,-6 10-855,-9 12-270,-7 83 0,0 26 0,2 13 0,6 12 0,4 4-45,5 5 0,5-1-270,3-17 0,7-8-225,31 3 450,-12-59 90,4-59 270,-18-19 630,-5-4-720,-9 39-180,-5 41 0,0 30 0,4 13-450,5-12-180,16-22 270,7-33 360,15-30 90,-1-18 720,-7 2-270,-9 28-540,-14 39-1440,-9 33-4226,-5 20-1260,1-3-540,10-22 7466,-5-16 0,1-15 0,-14-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3817">5273 725 8342,'30'-55'9830,"-8"9"-6347,-9 5-155,-32 47-1439,-13 39-1260,-11 36-899,19 9-1798,28-10-1,33-29 899,37-42 945,-24-25 1,2-11 359,7-18 0,-2-9 314,0-15 1,-6-7 494,-8-2 1,-7 0 314,-9 8 1,-7 4 269,-2-20-1439,-30 70-90,-3 78 0,6-3 0,3 8-225,6 14 0,7 3-2699,4-2 1,5-4 359,3-13 1,3-7-4903,15 16 7017,-16-49 808,-33-48 2160,-36-39-990,14 24 0,-2 1-90,-2 1 1,1 4 1258,-18-8-2518,38 18-2339,48 5-3238,46-7 5397,-26 8 0,1 0 0,36-12 0,-13 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4050">6442 278 8702,'-6'-38'9830,"-21"18"-1041,-32 24-8114,15 21 0,0 12-675,-2 13 0,6 9 0,8 11 0,10 4-855,12 4 1,12-1-2789,15-5 0,10-5 225,3-11 0,5-7 2739,2-10 1,0-8-1,6-2 1,-14-19 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:49:53.121"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 79 11311,'-31'-10'9624,"7"4"-8994,44-2-630,47 1-1305,-6 0 1,6 1-1170,6-1 1,-2 0 2473,-8 0 0,-7 2 0,12-2 0,-39 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="233">195 418 10411,'-40'29'8815,"32"-6"-9085,61-20-1754,1-5 0,8-2 2024,18-4 0,1-1 0,-17 2 0,-1-1 0,-3 0 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:22.769"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 8 13739,'-14'-2'360,"24"1"-2969,5 0 2609,28 0 0,-21-1 0,0 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:24.170"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">388 190 12210,'-12'-54'7916,"-18"5"-7467,-26 12 900,-26 27-359,-11 39-360,19 32-361,33 26-269,52 1 0,37-21 90,19-35 180,6-51 989,-10-41 450,-14-20-719,-13 1-450,-16 28-540,-8 31 0,-8 52-2789,1 22-2608,2 30 1440,9-8 1438,12-18 2519,12-25 1169,7-28 1170,-5-14 180,-1-9-1,-11 6 810,6 10-2248,-6 16-361,4 18-359,-7 6-270,-5-2 0,-6-14-180,-3-17 90,10-28 90,3-7 360,11-7-450,3 21 0,2 27-270,2 25-4587,0 15-4974,-2-1 9680,-10-18 0,-11-15 0,-12-14 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="599">1408 118 9512,'-3'-27'9830,"-3"19"-6708,1 11-2042,6 59-721,13 19-359,-2-27 0,3 0-269,16 35 89,-1-17 90,-8-24 90,-7-18 90,-4-10 269,-4-8-359,0-12 0,2-5 0,13-24 0,2-1-90,16-14 180,2 0 180,0-10 0,-11-3 450,-27-30-540,-27 24-360,-12 24 0,-8 8-3778,-31 12-90,-6 20 4048,41 34 0,23-15 0,15 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="999">1876 318 11041,'7'-11'9830,"1"11"-7157,-1 5-1414,4 26-809,-5 6-181,-7 27-179,-3-18-539,-4 0 449,13-35-90,12-25 90,9-10 90,6-8 179,13 23-179,-13 17-1529,11 37-3148,-25 9-1350,-5 7 5937,-8-20 0,-4-20 0,-1-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1749">2261 173 9062,'12'-51'8365,"-1"12"-6296,12 3-900,5 17-629,15-2 0,18 14-271,-6 14-89,4 6-90,-8 12 0,-24-8 270,-1 1-360,-24-19 0,-6-7 90,-10-8 0,-21-12 270,-1 17 269,-35 14-269,4 40-180,5 24-630,27 17-989,36-10 270,27-22 809,19-30 540,10-29 809,0-15 181,-12 0-91,-2 14-989,-20 10 90,4 19-180,-14 2 0,-1 1-90,-4-4 0,-2-8 0,4-5 90,5 4 0,2 7-1529,-2 11-2159,-7-2 3688,-5 0 0,-3-18 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -5993,6 +10791,302 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:22.919"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 33 11221,'10'10'4947,"0"-1"-7466,14-9 270,20-11 2249,18-5 0,-19 1 0,-10 5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="117">449 11 8882,'9'6'4857,"0"1"-8005,4-2 3148,-1-1 0,-2-3 0,-3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="250">719 135 12390,'-3'5'0,"0"0"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:22.136"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">239 22 9602,'-31'-19'9830,"0"16"-4369,13 32-3482,11 61-1665,8-40 1,2 2-1619,5 19 0,1 1-2564,-1-13 0,1-4 3868,5 31 0,-4-34 0,-8-36 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167">62 476 9332,'-24'-16'9830,"1"3"-8057,8-1-1683,34 5-3328,67 1-1678,-17 3 1,3 0 4784,-14 0 1,-1 0-1,6 1 1,-6-1-1,-10 2 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:20.070"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 408 2060,'8'-30'9175,"-3"-5"-4906,-5-7-2740,-24 12-540,-10 25-719,-4 12 796,-8 43 1,5 15-1067,10 5 346,-2 9 1,10 0-797,37-10 3146,17-19-2786,40-77 90,-13-28 180,-15 0 0,-2-3 449,4-18 2519,-2-8-2248,-24 80-720,-7 0 0,0 83-720,-4 18-1529,-2-29 0,1 3-270,0-2 1,0-4-810,12 28 2158,12-60 1080,0-38 1349,15-40 1440,2-1-1170,-8 12 1169,17 14 1,-19 43-1710,-2 14-719,-18 46-450,-20 5 0,-5 6 0,5-16 0,15-26-1350,20-20-5396,23-15-1349,16-12 8095,-8-6 0,-21-2 0,-25 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850">1465 130 10051,'-23'-65'9830,"6"17"-7787,6 32 746,6 71-1935,4 2 1,1 8-495,2 24-1,3 4-179,2 3 0,4-1-135,3-11 0,6-7-45,1-22 0,6-11 0,33-6 0,4-68 180,-11-44 0,-32 26 0,-8-2 90,-14-41-180,-47 26-180,-37 36-945,33 27 1,0 9-4363,-34 24 3148,46 15 720,55-3 1169,39-10 1710,20-17 808,4-15 181,-2-7 180,-2 5-361,-8 17-808,-18 25-1350,-24 27 0,-24 22 0,-10 2 0,1-6 0,18-24 0,23-22-3778,20-19-3238,17-16 7016,5-10 0,-31 1 0,-10-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683">2649 384 8162,'-31'-26'9830,"-15"10"-7337,-26 15-604,-8 29-809,8 33-721,27 27-584,37-37 1,9 1-946,10-1 1,7-3-540,29 25 0,33-31 1169,-6-41 1080,12-19 989,-15-13-180,-15 5 540,3 3 810,6 13-1350,-5 10-90,5 23-629,-28 27-360,-16 4-180,-22 22-90,-16-26-180,-3-5-1080,-1-13 991,20-23 179,12 0 90,30-10 0,-7-2 0,25 10 90,-29 8-90,4 3-270,-10 18-270,-15-18-629,5 10-3059,3-19-899,2-7 5127,13-6 0,-17-1 0,1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:19.086"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">135 31 2554,'-10'-21'9830,"-3"11"-3486,9 34-4006,7 27-237,16 34-1741,-3-29 0,2 3-3764,2 3 0,0-1-3702,9 33 6749,-6-14 1,-20-64 0,-5-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="184">45 428 10411,'-40'-32'9830,"35"7"-9406,32 4-3662,69 1-90,-31 11 0,0 1 1529,-13 1 0,-3 0 951,41-5 0,-71 10 0,-5 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:50:16.803"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">527 317 9242,'-64'-43'6476,"-12"23"-5622,24 27 1,-1 12-46,-5 14 1,1 9-226,3 10 1,7 5-225,10 3 0,14 1-225,17-7 0,16-4 45,52 18-135,-12-50 0,5-13 90,5-12 0,-1-12 449,-3-12 1,-7-10-225,-10-6 0,-8-6 359,-10 0 1,-8 0 809,-7-41-810,-10 33-449,-6 33 0,5 58-180,5 42-945,4-11 1,2 5-1980,3 7 1,2 2 89,3-1 1,2-4 2743,1-12 0,1-7 0,4 7 0,-4-34 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200">782 860 8522,'10'-32'9830,"-1"3"-6527,-3 49-2854,-4 11-1618,2 29-5577,0 10 6746,-1-19 0,1-12 0,-2-21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867">1234 191 8072,'-28'-54'4915,"1"1"0,-16-30-1342,30 91-1325,12 71-1753,3-28 0,2 5-91,11 33 1,6 1-315,2-23 0,4-4-45,3 1 0,6-8 0,4-17 0,3-12 45,24-10-90,-1-25 0,-22-56 0,-26 0 0,-20-36 0,-37 35-90,-12 22 90,-34 41-360,5 43-2248,13 5-2699,20 17-4524,52-14 9680,3-15 0,11-10 1,-13-21-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1100">1631 534 12030,'39'1'8725,"-12"0"-6296,-9 36-1260,-8 9-719,2 28-2789,-2 8-2428,-3 1-1979,-1-14 5898,-4-18 0,-1-27 0,-1-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1517">2418 438 9242,'-7'-41'8365,"-7"4"-6026,-14-3-1080,-18 25 450,-17 30-450,-11 36-944,38-13 0,3 6-90,6 3 0,5 2 44,6 49-269,34-13-3687,25-16-1890,18-17-3508,8-28 9085,-20-17 0,-12-11 0,-27-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1733">2598 698 10501,'22'-20'9445,"-2"3"-6747,-5 20-179,0 25-1260,-2 27-809,-6 36-1710,-5-38 1,-1 1-1844,0 1 0,0 0 3103,-1-2 0,1-4 0,0 5 0,-1-18 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:53:59.090"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 104 7892,'-2'-48'7466,"5"10"-6296,11 21 988,24 82-1559,-15-9 1,1 11 0,-1 4-687,3 10 1,-1 5 0,-1 10 280,-6-19 1,0 8 0,0 5 0,0 3 0,-1 1 0,-1-2-394,-1 3 1,-1 0-1,0 0 1,-1 2-1,-1 2 1,1 2 220,-2-14 1,0 3-1,0 1 1,0 1-1,-1 0 1,0 0-1,0 0 1,-2-2-260,2 9 0,-1-1 0,-1 0 0,0-1 1,-1 0-1,-1 1 0,-1-1 237,0-1 0,-2 1 0,0 0 0,-1-1 0,-1 0 0,0-2 0,-2-2-30,0 3 0,0-2 0,-2-2 0,-1 0 0,-1 1 0,-2 3-382,-1-1 1,-1 3 0,-2 1 0,-1 1 0,-1-1 0,-1-3 0,0-3-516,0-3 1,-2-3 0,0-2-1,-1-2 1,-1 1 0,-2 2 926,-2 4 0,-1 3 0,-2 0 0,-1-2 0,1-4 0,1-8 0,-9 23 0,1-9 0,-2-6 0,2-18 0,0 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:00.473"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">777 63 9332,'-48'-63'9830,"-45"89"-8999,51 17 0,1 17 0,1 7-1033,1 2 1,1 5 0,0 7 0,2 3 632,4 0 1,2 5 0,0 4 0,3 2-1,1 2-379,4-6 0,2 2 0,1 2 1,1 2-1,2 0 0,1 2 115,2-9 0,1 2 0,1 0 0,0 2 0,2 0 0,1 1 1,0 1-157,2-6 0,0 1 0,1 2 0,0 0 1,2 0-1,0 1 0,0-1 0,1 0-149,1 1 0,1 0 0,0-1 1,0 1-1,2 0 0,0 0 1,0 0-1,0 0 138,1 2 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1-1 0,0 0-315,1-4 0,0 0 0,0-1 0,1 0 1,0 0-1,1-1 0,1-1 0,0 0-651,2 8 1,1-1-1,1 0 1,1-2-1,0 0 1,1-2-1,1-1-369,3 4 1,1-1 0,1-2 0,1-1 0,-1-4 0,1-2 1334,7 18 0,0-5 0,0-4 0,1-6 0,4 4 0,1-6 0,-1-9 0,-1-10 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:53:59.724"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 11850,'10'13'9175,"33"65"-8860,-15-26 0,5 6-915,5 8 0,6 6 1,0-3-2456,15 13 0,0-4 3055,-16-23 0,0 0 0,-3-7 0,27 24 0,-31-41 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="199">638 328 10771,'-32'-48'8725,"6"11"-4138,-21 19-4227,2 47-270,2 22 0,-2 15-1350,13-7 1,2 5 0,0 2-1953,-4 10 0,1 3 0,2-2 3212,6-10 0,1-2 0,3-4 0,-1 7 0,5-9 0,0 7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:53:54.907"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">168 1 18327,'-21'0'3328,"-3"10"-2519,1 30 91,1 32-721,13-23 1,4 3-90,4 0 0,4 0-45,10 7 0,7-5-45,30 5 180,33-39 494,-38-42 1,-4-16 224,-4-10 1,-7-6-495,-6-2 0,-13 0-360,-24 3 0,-15 9-3373,-54 8 629,31 27 1,-2 11 2698,-3 24 0,5 7 0,3-2 0,11 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="534">332 1056 10231,'-11'-29'9830,"4"8"-4638,4 23-3933,11 42-900,1 4 1,1 8-810,3 17 1,-1 4-1665,0 9 0,-1 1-809,-2-3 0,-2-2 2923,-4-11 0,0-8 0,-2 8 0,-2-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750">445 1281 8702,'-8'-25'7196,"1"8"-4048,-15 13-2248,4 43 809,-1 47-900,15-22 1,5 5-406,6 4 1,6 1-225,9 2 0,6-6-90,-3-21 0,6-9-90,58-2 90,-12-85-45,-42-2 0,-11-11 0,-15-29 0,-19-8-15,-10 30 0,-8-1 0,-4 4-75,-19-24 0,-10 12-270,-11 16 0,-5 21-1844,19 32 1,4 16-901,8 12 1,7 11 3058,-3 52 0,35-8 0,19-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3033">466 2133 12120,'-9'-4'9830,"-3"33"-6348,1 39-3527,6-8 1,2 7-2070,3 7 0,3 2-945,1 2 1,3-3 3058,-2-15 0,1-6 0,5 9 0,-6-34 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3250">480 2965 15178,'-11'29'6657,"0"21"-6208,7 23-1349,3-17 1,0 6-1530,3 9 1,0 1 2428,2 4 0,-1-5 0,2 14 0,-2-28 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:01.724"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">289 323 7533,'4'-46'9830,"-8"2"-7337,-6-4-1054,-17 32 540,-15 61-1395,18 5 1,3 9-180,2 14 0,8 6-136,11 2 1,12-4-135,15-15 0,13-12-135,15-19 0,8-17 225,11-21 0,1-18 90,2-22-1,-9-16-194,-27 10 0,-5-6 0,-8-2 30,-8-4 0,-8-3 0,-8 2-105,-17-28 0,-20 11-225,-18 22 0,-14 24-1349,-21 36 0,-4 32-630,29 10 0,4 14 1,3 6-1119,1 12 0,4 7 0,7-1 2798,12-16 0,4 0 0,6-3 1,0 21-1,9-11 0,6-11 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -6018,6 +11112,290 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">212 305 9602,'-22'-55'7735,"9"-5"-7105,21-8 359,31 2-179,25 19-1,15 38 1,-5 58-541,-46-1 1,-10 11-90,-8 28 0,-11 12-276,-6-17 1,-6 4 0,-1 1 95,-1 3 0,-2 0 0,1 0 0,2-1 0,1 0 0,5-6-135,5 9 0,13-12 90,11-29 0,11-16-45,57-31 135,-41-24 0,-3-11-45,-4-4 0,-5-2 0,6-26 90,-36 28 286,-17 42-376,2 45 0,11 0 0,6 8-90,7 15 0,2 4 90,4 10 0,-3 2 0,-3 0 0,-11 0 180,-13-5 0,-15-4-90,-18-9 0,-15-9-990,-17-10 1,-10-13-1350,-10-16 1,-3-15 2248,4-17 0,8-8 0,29 5 0,9-4 0,-17-19 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:02.107"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">277 45 11041,'-1'-16'7106,"-2"3"-2699,-20 13-3957,-10 36 539,-8 45-764,27-21 0,8 5-180,6 4 0,12-1 0,20 2 0,13-11 45,2-23 0,7-15 135,18-12 0,-1-19 629,-11-26 1,-9-16-361,-9-16 1,-14-7-315,-15 0 0,-20 2-135,-33-4 0,-20 14-945,-5 30 1,-7 16-1215,-12 7 0,0 20-2802,2 41 1,13 16 4889,29-20 1,9 2-1,2 11 1,10-2-1,18 3 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:03.990"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 177 8792,'-33'-90'8275,"7"22"-6746,11 50-179,15 98-811,5-13 1,3 12 0,2 6 112,0-5 0,2 6 0,0 4 0,1 5-737,-2-12 1,2 5 0,0 4 0,0 1 0,0 1 0,0 0 212,-3-11 1,1 1-1,0 1 1,-1 0-1,0 1 1,-1 1-1,0 2-284,0-2 1,-1 2 0,0 1 0,0 1 0,-1 1 0,-1 0 0,0-1 0,-2 1 166,0 0 0,-2 0 0,0 0 1,-1 0-1,-1 0 0,0 1 1,-1-1-1,0 1-56,-1 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-2-2-192,1-1 1,-1-1 0,-1 0 0,0 0 0,0-1 0,-1 0 0,-1-2 0,1 0-574,-2 4 0,0-1 0,0-1 0,-1-1 0,0 0 1,-1-2-1,1 0-480,-3 9 1,-1 0 0,0-2 0,0-1-1,0-4 1,-1-4 1289,-2 13 0,-1-5 0,1-5 0,-1-2 0,-4 11 0,1-4 0,0-10 0,0-10 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:02.540"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">210 157 12300,'-29'-16'9830,"-1"14"-4639,-13 27-4741,15 48-585,20-24 0,8 5-270,14 16 1,12-2 224,4-21 0,6-8 90,7-2 0,4-17 540,5-33 0,-5-20 224,-11-16 1,-9-12-540,-6-19 0,-15-4-135,-28-3 0,-15 8-1080,2 20 1,-10 14-2654,-20 19 0,-1 22 3733,21 31 0,5 11 0,-24 28 0,27 14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">263 1125 9961,'4'-21'9830,"-1"10"-1940,-14 62-7440,5-2 0,0 7-1530,-2 27 1,2 8-1260,2-20 0,2 3 1,1-1-939,1-1 0,1 0 0,0-5 2574,1 7 1,1-9 0,4 17 0,-5-67 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="616">224 2495 13020,'-6'-11'9830,"-9"19"-5269,5 30-5550,-2 47-1755,11-21 1,3 6-1350,2 18 1,2 2 3677,0-12 0,0-3 0,0-6 0,0-6 0,1 13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="817">256 3622 18686,'-11'9'5307,"0"15"-4767,4 35-4228,3 37 630,4-31 0,2 2 3058,1-6 0,1-5 0,2 22 0,-2-41 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:07.706"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 14 12480,'7'32'2698,"12"17"-1798,6-2-91,16 2-359,14-35-270,21-33-90,-1-17-45,-31 7 0,-2 0-1304,10-13 1259,-13 10 0,-23 18 0,-13 11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:08.106"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 60 11940,'-1'6'6297,"5"0"-6118,1 13 361,8-2 630,22 1-541,13-13-449,19-8-90,3-24-1529,-12-5-1709,-9 1 269,-20 11 2879,-9 8 0,-14 9 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:08.456"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 1 12840,'-7'10'4407,"3"2"-4047,9 21 1349,10 10-630,13 22-449,14 2-90,17-16-181,25-36-269,-35-25 0,0-10-495,1-6 1,-2-5-1170,-5 0 0,-3-2-3733,17-17 5307,-19 20 0,-18 13 0,-8 10 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:10.389"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">150 47 15628,'-17'5'1889,"3"5"-1799,9 11 360,6 12-180,14 8 359,18-1 720,25-24 720,23-54-1169,-21-15-451,-13-29-1168,-60 44-2879,-42 37 1169,10 22 1,-2 13 2428,-9 16 0,2 4 0,13-12 0,5 1 0,5 1 0,1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:10.723"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">203 10 14279,'-6'-9'3778,"-6"11"-3508,0 16-181,6 22 1,20 3 90,25-6 630,18-28 719,5-27-450,-15-16-719,-32-11-1889,-49 29-2249,-44 29 675,28 12 0,2 8 3103,4-1 0,5 3 0,-16 30 0,30-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="316">119 572 10861,'12'3'8365,"-3"4"-8365,4 14 90,11 7 0,17-7 360,17-20 989,5-34 360,-17-24-1080,-33-9-1078,-49 20-2969,-47 32-405,30 22 0,0 7 3733,-40 21 0,36-6 0,35-14 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:12.423"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">193 10 10321,'-8'-9'5127,"-11"15"-3688,-5 27-719,4 35-450,21 4 0,52 6-180,10-52 224,-9-24 1,-1-13 765,20-38-541,-22-19-359,-59 14-630,-72 45-674,21 25 0,-1 13-1170,-5 14 0,4 7 2294,13 0 0,8 1 0,-1 14 0,34-30 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-11T15:54:13.456"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04286" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">121 3 13289,'-16'31'4228,"9"10"-3688,13 19-181,21 11-179,23-3-90,19-30 630,13-52 629,-10-48-854,-44 18 0,-10-5 44,-20-42-719,-50 43-765,4 45 1,-4 15-1080,-4 16 1,2 11-2475,1 11 1,7 3 4497,-11 26 0,31-25 0,23-42 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6865,8 +12243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A7730E-5917-164A-9B16-7A7A6B5A11D8}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6978,6 +12356,15 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>900</v>
+      </c>
       <c r="I7">
         <v>3</v>
       </c>
@@ -6994,7 +12381,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -7012,8 +12399,8 @@
         <v>49</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" ref="D9">SUMPRODUCT((A2:A6=D8)*(B2:B6=E8)*C2:C6)</f>
-        <v>600</v>
+        <f t="array" ref="D9">SUMPRODUCT((A2:A7=D8)*(B2:B7=E8)*C2:C7)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
